--- a/Data/excel_files/Phenomerged.xlsx
+++ b/Data/excel_files/Phenomerged.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brandonhendrickson/Documents/Github_Projects/Meadowfoam_WhitetipClover_Phenology/Data/excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B0DD57D7-0338-464D-B755-E5266433B7B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075DEBF7-2547-4A44-B211-7E3DCAAC3B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6140" yWindow="500" windowWidth="27640" windowHeight="16940" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="500" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Phenomerged" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="79">
   <si>
     <t>Year</t>
   </si>
@@ -263,7 +263,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2881,16 +2881,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CA22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CW22"/>
   <sheetViews>
-    <sheetView topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AL1" sqref="AK1:AL1048576"/>
+    <sheetView tabSelected="1" topLeftCell="BR1" workbookViewId="0">
+      <selection activeCell="CE16" sqref="CE16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2934,202 +2934,205 @@
         <v>13</v>
       </c>
       <c r="O1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1" t="s">
+        <v>62</v>
+      </c>
+      <c r="U1" t="s">
+        <v>63</v>
+      </c>
+      <c r="V1" t="s">
+        <v>64</v>
+      </c>
+      <c r="W1" t="s">
+        <v>65</v>
+      </c>
+      <c r="X1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="AL1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="AM1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="AN1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="AO1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AP1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AQ1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AR1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AS1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AT1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AU1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AV1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AW1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AX1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AY1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AZ1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="BA1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="BB1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="BC1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="BD1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="BE1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="BF1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="BG1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="BH1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="BI1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="BJ1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="BK1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="BL1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="BM1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="BN1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="BO1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="BP1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="BQ1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="BR1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="BS1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BT1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BU1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BV1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BW1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BX1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BY1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BZ1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="CA1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BR1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BS1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BX1" t="s">
-        <v>75</v>
-      </c>
-      <c r="BY1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>77</v>
-      </c>
-      <c r="CA1" t="s">
+      <c r="CW1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2016</v>
       </c>
@@ -3160,128 +3163,128 @@
       <c r="J2">
         <v>33</v>
       </c>
-      <c r="O2">
+      <c r="AK2">
         <v>274</v>
       </c>
-      <c r="P2">
+      <c r="AL2">
         <v>695</v>
       </c>
-      <c r="Q2">
+      <c r="AM2">
         <v>275</v>
       </c>
-      <c r="R2">
+      <c r="AN2">
         <v>156</v>
       </c>
-      <c r="S2">
+      <c r="AO2">
         <v>970</v>
       </c>
-      <c r="T2">
+      <c r="AP2">
         <v>431</v>
       </c>
-      <c r="U2">
+      <c r="AQ2">
         <v>1126</v>
       </c>
-      <c r="V2">
+      <c r="AR2">
         <v>719</v>
       </c>
-      <c r="W2">
+      <c r="AS2">
         <v>769</v>
       </c>
-      <c r="X2">
+      <c r="AT2">
         <v>1739</v>
       </c>
-      <c r="Y2">
+      <c r="AU2">
         <v>1126</v>
       </c>
-      <c r="Z2">
+      <c r="AV2">
         <v>1122</v>
       </c>
-      <c r="AA2">
+      <c r="AW2">
         <v>769</v>
       </c>
-      <c r="AB2">
+      <c r="AX2">
         <v>4.17</v>
       </c>
-      <c r="AC2">
+      <c r="AY2">
         <v>9.9700000000000006</v>
       </c>
-      <c r="AD2">
+      <c r="AZ2">
         <v>8.09</v>
       </c>
-      <c r="AE2">
+      <c r="BA2">
         <v>52.025519709999998</v>
       </c>
-      <c r="AF2">
+      <c r="BB2">
         <v>50.883759730000001</v>
       </c>
-      <c r="AG2">
+      <c r="BC2">
         <v>40.066200719999998</v>
       </c>
-      <c r="AH2">
+      <c r="BD2">
         <v>39.861994809999999</v>
       </c>
-      <c r="AI2">
+      <c r="BE2">
         <v>66.988781360000004</v>
       </c>
-      <c r="AJ2">
+      <c r="BF2">
         <v>63.485317019999997</v>
       </c>
-      <c r="AK2">
+      <c r="BG2">
         <v>66.317241379999999</v>
       </c>
-      <c r="AL2">
+      <c r="BH2">
         <v>74.680000000000007</v>
       </c>
-      <c r="AM2">
+      <c r="BI2">
         <v>66.854838709999996</v>
       </c>
-      <c r="AN2">
+      <c r="BJ2">
         <v>843.875</v>
       </c>
-      <c r="AO2">
+      <c r="BK2">
         <v>3.5</v>
       </c>
-      <c r="AP2">
+      <c r="BL2">
         <v>42.2</v>
       </c>
-      <c r="AQ2">
+      <c r="BM2">
         <v>61.2</v>
       </c>
-      <c r="AR2">
+      <c r="BN2">
         <v>134.5</v>
       </c>
-      <c r="AS2">
+      <c r="BO2">
         <v>12.3</v>
       </c>
-      <c r="AT2">
+      <c r="BP2">
         <v>109</v>
       </c>
-      <c r="AU2">
+      <c r="BQ2">
         <v>45.7</v>
       </c>
-      <c r="AV2">
+      <c r="BR2">
         <v>106.9</v>
       </c>
-      <c r="AW2">
+      <c r="BS2">
         <v>241.2</v>
       </c>
-      <c r="AX2">
+      <c r="BT2">
         <v>253.5</v>
       </c>
-      <c r="AY2">
+      <c r="BU2">
         <v>362.5</v>
       </c>
-      <c r="AZ2">
+      <c r="BV2">
         <v>146.6</v>
       </c>
-      <c r="BA2">
+      <c r="BW2">
         <v>255.6</v>
       </c>
-      <c r="BB2">
+      <c r="BX2">
         <v>121.3</v>
       </c>
     </row>
-    <row r="3" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2016</v>
       </c>
@@ -3312,128 +3315,128 @@
       <c r="J3">
         <v>14</v>
       </c>
-      <c r="O3">
+      <c r="AK3">
         <v>274</v>
       </c>
-      <c r="P3">
+      <c r="AL3">
         <v>695</v>
       </c>
-      <c r="Q3">
+      <c r="AM3">
         <v>275</v>
       </c>
-      <c r="R3">
+      <c r="AN3">
         <v>156</v>
       </c>
-      <c r="S3">
+      <c r="AO3">
         <v>970</v>
       </c>
-      <c r="T3">
+      <c r="AP3">
         <v>431</v>
       </c>
-      <c r="U3">
+      <c r="AQ3">
         <v>1126</v>
       </c>
-      <c r="V3">
+      <c r="AR3">
         <v>719</v>
       </c>
-      <c r="W3">
+      <c r="AS3">
         <v>769</v>
       </c>
-      <c r="X3">
+      <c r="AT3">
         <v>1739</v>
       </c>
-      <c r="Y3">
+      <c r="AU3">
         <v>1126</v>
       </c>
-      <c r="Z3">
+      <c r="AV3">
         <v>1122</v>
       </c>
-      <c r="AA3">
+      <c r="AW3">
         <v>769</v>
       </c>
-      <c r="AB3">
+      <c r="AX3">
         <v>4.17</v>
       </c>
-      <c r="AC3">
+      <c r="AY3">
         <v>9.9700000000000006</v>
       </c>
-      <c r="AD3">
+      <c r="AZ3">
         <v>8.09</v>
       </c>
-      <c r="AE3">
+      <c r="BA3">
         <v>52.025519709999998</v>
       </c>
-      <c r="AF3">
+      <c r="BB3">
         <v>50.883759730000001</v>
       </c>
-      <c r="AG3">
+      <c r="BC3">
         <v>40.066200719999998</v>
       </c>
-      <c r="AH3">
+      <c r="BD3">
         <v>39.861994809999999</v>
       </c>
-      <c r="AI3">
+      <c r="BE3">
         <v>66.988781360000004</v>
       </c>
-      <c r="AJ3">
+      <c r="BF3">
         <v>63.485317019999997</v>
       </c>
-      <c r="AK3">
+      <c r="BG3">
         <v>66.317241379999999</v>
       </c>
-      <c r="AL3">
+      <c r="BH3">
         <v>74.680000000000007</v>
       </c>
-      <c r="AM3">
+      <c r="BI3">
         <v>66.854838709999996</v>
       </c>
-      <c r="AN3">
+      <c r="BJ3">
         <v>372.34120000000001</v>
       </c>
-      <c r="AO3">
+      <c r="BK3">
         <v>3.5</v>
       </c>
-      <c r="AP3">
+      <c r="BL3">
         <v>42.2</v>
       </c>
-      <c r="AQ3">
+      <c r="BM3">
         <v>61.2</v>
       </c>
-      <c r="AR3">
+      <c r="BN3">
         <v>134.5</v>
       </c>
-      <c r="AS3">
+      <c r="BO3">
         <v>12.3</v>
       </c>
-      <c r="AT3">
+      <c r="BP3">
         <v>109</v>
       </c>
-      <c r="AU3">
+      <c r="BQ3">
         <v>45.7</v>
       </c>
-      <c r="AV3">
+      <c r="BR3">
         <v>106.9</v>
       </c>
-      <c r="AW3">
+      <c r="BS3">
         <v>241.2</v>
       </c>
-      <c r="AX3">
+      <c r="BT3">
         <v>253.5</v>
       </c>
-      <c r="AY3">
+      <c r="BU3">
         <v>362.5</v>
       </c>
-      <c r="AZ3">
+      <c r="BV3">
         <v>146.6</v>
       </c>
-      <c r="BA3">
+      <c r="BW3">
         <v>255.6</v>
       </c>
-      <c r="BB3">
+      <c r="BX3">
         <v>121.3</v>
       </c>
     </row>
-    <row r="4" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2016</v>
       </c>
@@ -3464,128 +3467,128 @@
       <c r="J4">
         <v>28</v>
       </c>
-      <c r="O4">
+      <c r="AK4">
         <v>274</v>
       </c>
-      <c r="P4">
+      <c r="AL4">
         <v>695</v>
       </c>
-      <c r="Q4">
+      <c r="AM4">
         <v>275</v>
       </c>
-      <c r="R4">
+      <c r="AN4">
         <v>156</v>
       </c>
-      <c r="S4">
+      <c r="AO4">
         <v>970</v>
       </c>
-      <c r="T4">
+      <c r="AP4">
         <v>431</v>
       </c>
-      <c r="U4">
+      <c r="AQ4">
         <v>1126</v>
       </c>
-      <c r="V4">
+      <c r="AR4">
         <v>719</v>
       </c>
-      <c r="W4">
+      <c r="AS4">
         <v>769</v>
       </c>
-      <c r="X4">
+      <c r="AT4">
         <v>1739</v>
       </c>
-      <c r="Y4">
+      <c r="AU4">
         <v>1126</v>
       </c>
-      <c r="Z4">
+      <c r="AV4">
         <v>1122</v>
       </c>
-      <c r="AA4">
+      <c r="AW4">
         <v>769</v>
       </c>
-      <c r="AB4">
+      <c r="AX4">
         <v>4.17</v>
       </c>
-      <c r="AC4">
+      <c r="AY4">
         <v>9.9700000000000006</v>
       </c>
-      <c r="AD4">
+      <c r="AZ4">
         <v>8.09</v>
       </c>
-      <c r="AE4">
+      <c r="BA4">
         <v>52.025519709999998</v>
       </c>
-      <c r="AF4">
+      <c r="BB4">
         <v>50.883759730000001</v>
       </c>
-      <c r="AG4">
+      <c r="BC4">
         <v>40.066200719999998</v>
       </c>
-      <c r="AH4">
+      <c r="BD4">
         <v>39.861994809999999</v>
       </c>
-      <c r="AI4">
+      <c r="BE4">
         <v>66.988781360000004</v>
       </c>
-      <c r="AJ4">
+      <c r="BF4">
         <v>63.485317019999997</v>
       </c>
-      <c r="AK4">
+      <c r="BG4">
         <v>66.317241379999999</v>
       </c>
-      <c r="AL4">
+      <c r="BH4">
         <v>74.680000000000007</v>
       </c>
-      <c r="AM4">
+      <c r="BI4">
         <v>66.854838709999996</v>
       </c>
-      <c r="AN4">
+      <c r="BJ4">
         <v>871.35</v>
       </c>
-      <c r="AO4">
+      <c r="BK4">
         <v>3.5</v>
       </c>
-      <c r="AP4">
+      <c r="BL4">
         <v>42.2</v>
       </c>
-      <c r="AQ4">
+      <c r="BM4">
         <v>61.2</v>
       </c>
-      <c r="AR4">
+      <c r="BN4">
         <v>134.5</v>
       </c>
-      <c r="AS4">
+      <c r="BO4">
         <v>12.3</v>
       </c>
-      <c r="AT4">
+      <c r="BP4">
         <v>109</v>
       </c>
-      <c r="AU4">
+      <c r="BQ4">
         <v>45.7</v>
       </c>
-      <c r="AV4">
+      <c r="BR4">
         <v>106.9</v>
       </c>
-      <c r="AW4">
+      <c r="BS4">
         <v>241.2</v>
       </c>
-      <c r="AX4">
+      <c r="BT4">
         <v>253.5</v>
       </c>
-      <c r="AY4">
+      <c r="BU4">
         <v>362.5</v>
       </c>
-      <c r="AZ4">
+      <c r="BV4">
         <v>146.6</v>
       </c>
-      <c r="BA4">
+      <c r="BW4">
         <v>255.6</v>
       </c>
-      <c r="BB4">
+      <c r="BX4">
         <v>121.3</v>
       </c>
     </row>
-    <row r="5" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2017</v>
       </c>
@@ -3604,128 +3607,128 @@
       <c r="F5">
         <v>49</v>
       </c>
-      <c r="O5">
+      <c r="AK5">
         <v>289</v>
       </c>
-      <c r="P5">
+      <c r="AL5">
         <v>566</v>
       </c>
-      <c r="Q5">
+      <c r="AM5">
         <v>361</v>
       </c>
-      <c r="R5">
+      <c r="AN5">
         <v>215</v>
       </c>
-      <c r="S5">
+      <c r="AO5">
         <v>927</v>
       </c>
-      <c r="T5">
+      <c r="AP5">
         <v>576</v>
       </c>
-      <c r="U5">
+      <c r="AQ5">
         <v>1142</v>
       </c>
-      <c r="V5">
+      <c r="AR5">
         <v>805</v>
       </c>
-      <c r="W5">
+      <c r="AS5">
         <v>870</v>
       </c>
-      <c r="X5">
+      <c r="AT5">
         <v>1797</v>
       </c>
-      <c r="Y5">
+      <c r="AU5">
         <v>1142</v>
       </c>
-      <c r="Z5">
+      <c r="AV5">
         <v>1113</v>
       </c>
-      <c r="AA5">
+      <c r="AW5">
         <v>870</v>
       </c>
-      <c r="AB5">
+      <c r="AX5">
         <v>4.32</v>
       </c>
-      <c r="AC5">
+      <c r="AY5">
         <v>12.76</v>
       </c>
-      <c r="AD5">
+      <c r="AZ5">
         <v>14.04</v>
       </c>
-      <c r="AE5">
+      <c r="BA5">
         <v>51.59071685</v>
       </c>
-      <c r="AF5">
+      <c r="BB5">
         <v>49.884831030000001</v>
       </c>
-      <c r="AG5">
+      <c r="BC5">
         <v>38.272688170000002</v>
       </c>
-      <c r="AH5">
+      <c r="BD5">
         <v>39.254953919999998</v>
       </c>
-      <c r="AI5">
+      <c r="BE5">
         <v>68.063189960000003</v>
       </c>
-      <c r="AJ5">
+      <c r="BF5">
         <v>62.271889399999999</v>
       </c>
-      <c r="AK5">
+      <c r="BG5">
         <v>61.52857143</v>
       </c>
-      <c r="AL5">
+      <c r="BH5">
         <v>71.540000000000006</v>
       </c>
-      <c r="AM5">
+      <c r="BI5">
         <v>69.851612900000006</v>
       </c>
-      <c r="AN5">
+      <c r="BJ5">
         <v>843.875</v>
       </c>
-      <c r="AO5">
+      <c r="BK5">
         <v>9.8000000000000007</v>
       </c>
-      <c r="AP5">
+      <c r="BL5">
         <v>30.6</v>
       </c>
-      <c r="AQ5">
+      <c r="BM5">
         <v>71</v>
       </c>
-      <c r="AR5">
+      <c r="BN5">
         <v>168.2</v>
       </c>
-      <c r="AS5">
+      <c r="BO5">
         <v>119.2</v>
       </c>
-      <c r="AT5">
+      <c r="BP5">
         <v>38.200000000000003</v>
       </c>
-      <c r="AU5">
+      <c r="BQ5">
         <v>40.4</v>
       </c>
-      <c r="AV5">
+      <c r="BR5">
         <v>111.4</v>
       </c>
-      <c r="AW5">
+      <c r="BS5">
         <v>279.5</v>
       </c>
-      <c r="AX5">
+      <c r="BT5">
         <v>398.7</v>
       </c>
-      <c r="AY5">
+      <c r="BU5">
         <v>436.9</v>
       </c>
-      <c r="AZ5">
+      <c r="BV5">
         <v>287.3</v>
       </c>
-      <c r="BA5">
+      <c r="BW5">
         <v>325.5</v>
       </c>
-      <c r="BB5">
+      <c r="BX5">
         <v>157.4</v>
       </c>
     </row>
-    <row r="6" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2017</v>
       </c>
@@ -3756,128 +3759,128 @@
       <c r="J6">
         <v>56</v>
       </c>
-      <c r="O6">
+      <c r="AK6">
         <v>289</v>
       </c>
-      <c r="P6">
+      <c r="AL6">
         <v>566</v>
       </c>
-      <c r="Q6">
+      <c r="AM6">
         <v>361</v>
       </c>
-      <c r="R6">
+      <c r="AN6">
         <v>215</v>
       </c>
-      <c r="S6">
+      <c r="AO6">
         <v>927</v>
       </c>
-      <c r="T6">
+      <c r="AP6">
         <v>576</v>
       </c>
-      <c r="U6">
+      <c r="AQ6">
         <v>1142</v>
       </c>
-      <c r="V6">
+      <c r="AR6">
         <v>805</v>
       </c>
-      <c r="W6">
+      <c r="AS6">
         <v>870</v>
       </c>
-      <c r="X6">
+      <c r="AT6">
         <v>1797</v>
       </c>
-      <c r="Y6">
+      <c r="AU6">
         <v>1142</v>
       </c>
-      <c r="Z6">
+      <c r="AV6">
         <v>1113</v>
       </c>
-      <c r="AA6">
+      <c r="AW6">
         <v>870</v>
       </c>
-      <c r="AB6">
+      <c r="AX6">
         <v>4.32</v>
       </c>
-      <c r="AC6">
+      <c r="AY6">
         <v>12.76</v>
       </c>
-      <c r="AD6">
+      <c r="AZ6">
         <v>14.04</v>
       </c>
-      <c r="AE6">
+      <c r="BA6">
         <v>51.59071685</v>
       </c>
-      <c r="AF6">
+      <c r="BB6">
         <v>49.884831030000001</v>
       </c>
-      <c r="AG6">
+      <c r="BC6">
         <v>38.272688170000002</v>
       </c>
-      <c r="AH6">
+      <c r="BD6">
         <v>39.254953919999998</v>
       </c>
-      <c r="AI6">
+      <c r="BE6">
         <v>68.063189960000003</v>
       </c>
-      <c r="AJ6">
+      <c r="BF6">
         <v>62.271889399999999</v>
       </c>
-      <c r="AK6">
+      <c r="BG6">
         <v>61.52857143</v>
       </c>
-      <c r="AL6">
+      <c r="BH6">
         <v>71.540000000000006</v>
       </c>
-      <c r="AM6">
+      <c r="BI6">
         <v>69.851612900000006</v>
       </c>
-      <c r="AN6">
+      <c r="BJ6">
         <v>372.34120000000001</v>
       </c>
-      <c r="AO6">
+      <c r="BK6">
         <v>9.8000000000000007</v>
       </c>
-      <c r="AP6">
+      <c r="BL6">
         <v>30.6</v>
       </c>
-      <c r="AQ6">
+      <c r="BM6">
         <v>71</v>
       </c>
-      <c r="AR6">
+      <c r="BN6">
         <v>168.2</v>
       </c>
-      <c r="AS6">
+      <c r="BO6">
         <v>119.2</v>
       </c>
-      <c r="AT6">
+      <c r="BP6">
         <v>38.200000000000003</v>
       </c>
-      <c r="AU6">
+      <c r="BQ6">
         <v>40.4</v>
       </c>
-      <c r="AV6">
+      <c r="BR6">
         <v>111.4</v>
       </c>
-      <c r="AW6">
+      <c r="BS6">
         <v>279.5</v>
       </c>
-      <c r="AX6">
+      <c r="BT6">
         <v>398.7</v>
       </c>
-      <c r="AY6">
+      <c r="BU6">
         <v>436.9</v>
       </c>
-      <c r="AZ6">
+      <c r="BV6">
         <v>287.3</v>
       </c>
-      <c r="BA6">
+      <c r="BW6">
         <v>325.5</v>
       </c>
-      <c r="BB6">
+      <c r="BX6">
         <v>157.4</v>
       </c>
     </row>
-    <row r="7" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2017</v>
       </c>
@@ -3908,128 +3911,128 @@
       <c r="J7">
         <v>56</v>
       </c>
-      <c r="O7">
+      <c r="AK7">
         <v>289</v>
       </c>
-      <c r="P7">
+      <c r="AL7">
         <v>566</v>
       </c>
-      <c r="Q7">
+      <c r="AM7">
         <v>361</v>
       </c>
-      <c r="R7">
+      <c r="AN7">
         <v>215</v>
       </c>
-      <c r="S7">
+      <c r="AO7">
         <v>927</v>
       </c>
-      <c r="T7">
+      <c r="AP7">
         <v>576</v>
       </c>
-      <c r="U7">
+      <c r="AQ7">
         <v>1142</v>
       </c>
-      <c r="V7">
+      <c r="AR7">
         <v>805</v>
       </c>
-      <c r="W7">
+      <c r="AS7">
         <v>870</v>
       </c>
-      <c r="X7">
+      <c r="AT7">
         <v>1797</v>
       </c>
-      <c r="Y7">
+      <c r="AU7">
         <v>1142</v>
       </c>
-      <c r="Z7">
+      <c r="AV7">
         <v>1113</v>
       </c>
-      <c r="AA7">
+      <c r="AW7">
         <v>870</v>
       </c>
-      <c r="AB7">
+      <c r="AX7">
         <v>4.32</v>
       </c>
-      <c r="AC7">
+      <c r="AY7">
         <v>12.76</v>
       </c>
-      <c r="AD7">
+      <c r="AZ7">
         <v>14.04</v>
       </c>
-      <c r="AE7">
+      <c r="BA7">
         <v>51.59071685</v>
       </c>
-      <c r="AF7">
+      <c r="BB7">
         <v>49.884831030000001</v>
       </c>
-      <c r="AG7">
+      <c r="BC7">
         <v>38.272688170000002</v>
       </c>
-      <c r="AH7">
+      <c r="BD7">
         <v>39.254953919999998</v>
       </c>
-      <c r="AI7">
+      <c r="BE7">
         <v>68.063189960000003</v>
       </c>
-      <c r="AJ7">
+      <c r="BF7">
         <v>62.271889399999999</v>
       </c>
-      <c r="AK7">
+      <c r="BG7">
         <v>61.52857143</v>
       </c>
-      <c r="AL7">
+      <c r="BH7">
         <v>71.540000000000006</v>
       </c>
-      <c r="AM7">
+      <c r="BI7">
         <v>69.851612900000006</v>
       </c>
-      <c r="AN7">
+      <c r="BJ7">
         <v>871.35</v>
       </c>
-      <c r="AO7">
+      <c r="BK7">
         <v>9.8000000000000007</v>
       </c>
-      <c r="AP7">
+      <c r="BL7">
         <v>30.6</v>
       </c>
-      <c r="AQ7">
+      <c r="BM7">
         <v>71</v>
       </c>
-      <c r="AR7">
+      <c r="BN7">
         <v>168.2</v>
       </c>
-      <c r="AS7">
+      <c r="BO7">
         <v>119.2</v>
       </c>
-      <c r="AT7">
+      <c r="BP7">
         <v>38.200000000000003</v>
       </c>
-      <c r="AU7">
+      <c r="BQ7">
         <v>40.4</v>
       </c>
-      <c r="AV7">
+      <c r="BR7">
         <v>111.4</v>
       </c>
-      <c r="AW7">
+      <c r="BS7">
         <v>279.5</v>
       </c>
-      <c r="AX7">
+      <c r="BT7">
         <v>398.7</v>
       </c>
-      <c r="AY7">
+      <c r="BU7">
         <v>436.9</v>
       </c>
-      <c r="AZ7">
+      <c r="BV7">
         <v>287.3</v>
       </c>
-      <c r="BA7">
+      <c r="BW7">
         <v>325.5</v>
       </c>
-      <c r="BB7">
+      <c r="BX7">
         <v>157.4</v>
       </c>
     </row>
-    <row r="8" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2018</v>
       </c>
@@ -4073,202 +4076,205 @@
         <v>55</v>
       </c>
       <c r="O8">
+        <v>29.555555559999998</v>
+      </c>
+      <c r="P8">
+        <v>0.17488494399999999</v>
+      </c>
+      <c r="Q8">
+        <v>2.2593984960000002</v>
+      </c>
+      <c r="R8">
+        <v>0.53045013200000002</v>
+      </c>
+      <c r="S8">
+        <v>0.353927626</v>
+      </c>
+      <c r="T8">
+        <v>1.5075187969999999</v>
+      </c>
+      <c r="U8">
+        <v>0.18093556899999999</v>
+      </c>
+      <c r="V8">
+        <v>0.74436090200000005</v>
+      </c>
+      <c r="W8">
+        <v>601</v>
+      </c>
+      <c r="X8">
+        <v>401</v>
+      </c>
+      <c r="Y8">
+        <v>205</v>
+      </c>
+      <c r="Z8">
+        <v>2.0632911389999999</v>
+      </c>
+      <c r="AA8">
+        <v>0.13945278</v>
+      </c>
+      <c r="AB8">
+        <v>0.28773168599999999</v>
+      </c>
+      <c r="AC8">
+        <v>2.0632911389999999</v>
+      </c>
+      <c r="AD8">
+        <v>8.1200353000000003E-2</v>
+      </c>
+      <c r="AE8">
+        <v>0.56329113900000005</v>
+      </c>
+      <c r="AF8">
+        <v>4.5895852000000001E-2</v>
+      </c>
+      <c r="AG8">
+        <v>0.329113924</v>
+      </c>
+      <c r="AH8">
+        <v>326</v>
+      </c>
+      <c r="AI8">
+        <v>92</v>
+      </c>
+      <c r="AJ8">
+        <v>52</v>
+      </c>
+      <c r="AK8">
         <v>292</v>
       </c>
-      <c r="P8">
+      <c r="AL8">
         <v>400</v>
       </c>
-      <c r="Q8">
+      <c r="AM8">
         <v>239</v>
       </c>
-      <c r="R8">
+      <c r="AN8">
         <v>213</v>
       </c>
-      <c r="S8">
+      <c r="AO8">
         <v>639</v>
       </c>
-      <c r="T8">
+      <c r="AP8">
         <v>452</v>
       </c>
-      <c r="U8">
+      <c r="AQ8">
         <v>852</v>
       </c>
-      <c r="V8">
+      <c r="AR8">
         <v>760</v>
       </c>
-      <c r="W8">
+      <c r="AS8">
         <v>754</v>
       </c>
-      <c r="X8">
+      <c r="AT8">
         <v>1393</v>
       </c>
-      <c r="Y8">
+      <c r="AU8">
         <v>852</v>
       </c>
-      <c r="Z8">
+      <c r="AV8">
         <v>937</v>
       </c>
-      <c r="AA8">
+      <c r="AW8">
         <v>754</v>
       </c>
-      <c r="AB8">
+      <c r="AX8">
         <v>1.39</v>
       </c>
-      <c r="AC8">
+      <c r="AY8">
         <v>3.68</v>
       </c>
-      <c r="AD8">
+      <c r="AZ8">
         <v>2.4500000000000002</v>
       </c>
-      <c r="AE8">
+      <c r="BA8">
         <v>50.873523990000002</v>
       </c>
-      <c r="AF8">
+      <c r="BB8">
         <v>48.793817199999999</v>
       </c>
-      <c r="AG8">
+      <c r="BC8">
         <v>35.90608572</v>
       </c>
-      <c r="AH8">
+      <c r="BD8">
         <v>36.539208909999999</v>
       </c>
-      <c r="AI8">
+      <c r="BE8">
         <v>70.500184329999996</v>
       </c>
-      <c r="AJ8">
+      <c r="BF8">
         <v>62.961290320000003</v>
       </c>
-      <c r="AK8">
+      <c r="BG8">
         <v>64</v>
       </c>
-      <c r="AL8">
+      <c r="BH8">
         <v>72.536666670000002</v>
       </c>
-      <c r="AM8">
+      <c r="BI8">
         <v>65.461290320000003</v>
       </c>
-      <c r="AN8">
+      <c r="BJ8">
         <v>843.875</v>
       </c>
-      <c r="AO8">
+      <c r="BK8">
         <v>5.8</v>
       </c>
-      <c r="AP8">
+      <c r="BL8">
         <v>28.2</v>
       </c>
-      <c r="AQ8">
+      <c r="BM8">
         <v>28.2</v>
       </c>
-      <c r="AR8">
+      <c r="BN8">
         <v>48.2</v>
       </c>
-      <c r="AS8">
+      <c r="BO8">
         <v>10.4</v>
       </c>
-      <c r="AT8">
+      <c r="BP8">
         <v>35.799999999999997</v>
       </c>
-      <c r="AU8">
+      <c r="BQ8">
         <v>34</v>
       </c>
-      <c r="AV8">
+      <c r="BR8">
         <v>38.700000000000003</v>
       </c>
-      <c r="AW8">
+      <c r="BS8">
         <v>87</v>
       </c>
-      <c r="AX8">
+      <c r="BT8">
         <v>97.4</v>
       </c>
-      <c r="AY8">
+      <c r="BU8">
         <v>133.19999999999999</v>
       </c>
-      <c r="AZ8">
+      <c r="BV8">
         <v>58.7</v>
       </c>
-      <c r="BA8">
+      <c r="BW8">
         <v>94.5</v>
       </c>
-      <c r="BB8">
+      <c r="BX8">
         <v>46.2</v>
       </c>
-      <c r="BC8">
+      <c r="BY8">
         <v>7</v>
       </c>
-      <c r="BD8">
+      <c r="BZ8">
         <v>1789</v>
       </c>
-      <c r="BE8">
+      <c r="CA8">
         <v>5.07</v>
       </c>
-      <c r="BF8">
-        <v>29.555555559999998</v>
-      </c>
-      <c r="BG8">
-        <v>0.17488494399999999</v>
-      </c>
-      <c r="BH8">
-        <v>2.2593984960000002</v>
-      </c>
-      <c r="BI8">
-        <v>0.53045013200000002</v>
-      </c>
-      <c r="BJ8">
-        <v>0.353927626</v>
-      </c>
-      <c r="BK8">
-        <v>1.5075187969999999</v>
-      </c>
-      <c r="BL8">
-        <v>0.18093556899999999</v>
-      </c>
-      <c r="BM8">
-        <v>0.74436090200000005</v>
-      </c>
-      <c r="BN8">
-        <v>601</v>
-      </c>
-      <c r="BO8">
-        <v>401</v>
-      </c>
-      <c r="BP8">
-        <v>205</v>
-      </c>
-      <c r="BQ8">
-        <v>2.0632911389999999</v>
-      </c>
-      <c r="BR8">
-        <v>0.13945278</v>
-      </c>
-      <c r="BS8">
-        <v>0.28773168599999999</v>
-      </c>
-      <c r="BT8">
-        <v>2.0632911389999999</v>
-      </c>
-      <c r="BU8">
-        <v>8.1200353000000003E-2</v>
-      </c>
-      <c r="BV8">
-        <v>0.56329113900000005</v>
-      </c>
-      <c r="BW8">
-        <v>4.5895852000000001E-2</v>
-      </c>
-      <c r="BX8">
-        <v>0.329113924</v>
-      </c>
-      <c r="BY8">
-        <v>326</v>
-      </c>
-      <c r="BZ8">
-        <v>92</v>
-      </c>
-      <c r="CA8">
+      <c r="CW8">
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2018</v>
       </c>
@@ -4312,202 +4318,205 @@
         <v>49</v>
       </c>
       <c r="O9">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="P9">
+        <v>0.15038759700000001</v>
+      </c>
+      <c r="Q9">
+        <v>2.5051546390000001</v>
+      </c>
+      <c r="R9">
+        <v>0.68258426999999999</v>
+      </c>
+      <c r="S9">
+        <v>0.16573033700000001</v>
+      </c>
+      <c r="T9">
+        <v>0.60824742300000001</v>
+      </c>
+      <c r="U9">
+        <v>0.18258426999999999</v>
+      </c>
+      <c r="V9">
+        <v>0.67010309300000004</v>
+      </c>
+      <c r="W9">
+        <v>243</v>
+      </c>
+      <c r="X9">
+        <v>59</v>
+      </c>
+      <c r="Y9">
+        <v>65</v>
+      </c>
+      <c r="Z9">
+        <v>2.6705882349999999</v>
+      </c>
+      <c r="AA9">
+        <v>0.23876404500000001</v>
+      </c>
+      <c r="AB9">
+        <v>0.63764044900000005</v>
+      </c>
+      <c r="AC9">
+        <v>2.6705882349999999</v>
+      </c>
+      <c r="AD9">
+        <v>0.176966292</v>
+      </c>
+      <c r="AE9">
+        <v>0.74117647099999995</v>
+      </c>
+      <c r="AF9">
+        <v>0.230337079</v>
+      </c>
+      <c r="AG9">
+        <v>0.96470588199999996</v>
+      </c>
+      <c r="AH9">
+        <v>227</v>
+      </c>
+      <c r="AI9">
+        <v>63</v>
+      </c>
+      <c r="AJ9">
+        <v>82</v>
+      </c>
+      <c r="AK9">
         <v>292</v>
       </c>
-      <c r="P9">
+      <c r="AL9">
         <v>400</v>
       </c>
-      <c r="Q9">
+      <c r="AM9">
         <v>239</v>
       </c>
-      <c r="R9">
+      <c r="AN9">
         <v>213</v>
       </c>
-      <c r="S9">
+      <c r="AO9">
         <v>639</v>
       </c>
-      <c r="T9">
+      <c r="AP9">
         <v>452</v>
       </c>
-      <c r="U9">
+      <c r="AQ9">
         <v>852</v>
       </c>
-      <c r="V9">
+      <c r="AR9">
         <v>760</v>
       </c>
-      <c r="W9">
+      <c r="AS9">
         <v>754</v>
       </c>
-      <c r="X9">
+      <c r="AT9">
         <v>1393</v>
       </c>
-      <c r="Y9">
+      <c r="AU9">
         <v>852</v>
       </c>
-      <c r="Z9">
+      <c r="AV9">
         <v>937</v>
       </c>
-      <c r="AA9">
+      <c r="AW9">
         <v>754</v>
       </c>
-      <c r="AB9">
+      <c r="AX9">
         <v>1.39</v>
       </c>
-      <c r="AC9">
+      <c r="AY9">
         <v>3.68</v>
       </c>
-      <c r="AD9">
+      <c r="AZ9">
         <v>2.4500000000000002</v>
       </c>
-      <c r="AE9">
+      <c r="BA9">
         <v>50.873523990000002</v>
       </c>
-      <c r="AF9">
+      <c r="BB9">
         <v>48.793817199999999</v>
       </c>
-      <c r="AG9">
+      <c r="BC9">
         <v>35.90608572</v>
       </c>
-      <c r="AH9">
+      <c r="BD9">
         <v>36.539208909999999</v>
       </c>
-      <c r="AI9">
+      <c r="BE9">
         <v>70.500184329999996</v>
       </c>
-      <c r="AJ9">
+      <c r="BF9">
         <v>62.961290320000003</v>
       </c>
-      <c r="AK9">
+      <c r="BG9">
         <v>64</v>
       </c>
-      <c r="AL9">
+      <c r="BH9">
         <v>72.536666670000002</v>
       </c>
-      <c r="AM9">
+      <c r="BI9">
         <v>65.461290320000003</v>
       </c>
-      <c r="AN9">
+      <c r="BJ9">
         <v>372.34120000000001</v>
       </c>
-      <c r="AO9">
+      <c r="BK9">
         <v>5.8</v>
       </c>
-      <c r="AP9">
+      <c r="BL9">
         <v>28.2</v>
       </c>
-      <c r="AQ9">
+      <c r="BM9">
         <v>28.2</v>
       </c>
-      <c r="AR9">
+      <c r="BN9">
         <v>48.2</v>
       </c>
-      <c r="AS9">
+      <c r="BO9">
         <v>10.4</v>
       </c>
-      <c r="AT9">
+      <c r="BP9">
         <v>35.799999999999997</v>
       </c>
-      <c r="AU9">
+      <c r="BQ9">
         <v>34</v>
       </c>
-      <c r="AV9">
+      <c r="BR9">
         <v>38.700000000000003</v>
       </c>
-      <c r="AW9">
+      <c r="BS9">
         <v>87</v>
       </c>
-      <c r="AX9">
+      <c r="BT9">
         <v>97.4</v>
       </c>
-      <c r="AY9">
+      <c r="BU9">
         <v>133.19999999999999</v>
       </c>
-      <c r="AZ9">
+      <c r="BV9">
         <v>58.7</v>
       </c>
-      <c r="BA9">
+      <c r="BW9">
         <v>94.5</v>
       </c>
-      <c r="BB9">
+      <c r="BX9">
         <v>46.2</v>
       </c>
-      <c r="BC9">
+      <c r="BY9">
         <v>4</v>
       </c>
-      <c r="BD9">
+      <c r="BZ9">
         <v>1789</v>
       </c>
-      <c r="BE9">
+      <c r="CA9">
         <v>5.07</v>
       </c>
-      <c r="BF9">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="BG9">
-        <v>0.15038759700000001</v>
-      </c>
-      <c r="BH9">
-        <v>2.5051546390000001</v>
-      </c>
-      <c r="BI9">
-        <v>0.68258426999999999</v>
-      </c>
-      <c r="BJ9">
-        <v>0.16573033700000001</v>
-      </c>
-      <c r="BK9">
-        <v>0.60824742300000001</v>
-      </c>
-      <c r="BL9">
-        <v>0.18258426999999999</v>
-      </c>
-      <c r="BM9">
-        <v>0.67010309300000004</v>
-      </c>
-      <c r="BN9">
-        <v>243</v>
-      </c>
-      <c r="BO9">
-        <v>59</v>
-      </c>
-      <c r="BP9">
-        <v>65</v>
-      </c>
-      <c r="BQ9">
-        <v>2.6705882349999999</v>
-      </c>
-      <c r="BR9">
-        <v>0.23876404500000001</v>
-      </c>
-      <c r="BS9">
-        <v>0.63764044900000005</v>
-      </c>
-      <c r="BT9">
-        <v>2.6705882349999999</v>
-      </c>
-      <c r="BU9">
-        <v>0.176966292</v>
-      </c>
-      <c r="BV9">
-        <v>0.74117647099999995</v>
-      </c>
-      <c r="BW9">
-        <v>0.230337079</v>
-      </c>
-      <c r="BX9">
-        <v>0.96470588199999996</v>
-      </c>
-      <c r="BY9">
-        <v>227</v>
-      </c>
-      <c r="BZ9">
-        <v>63</v>
-      </c>
-      <c r="CA9">
+      <c r="CW9">
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2018</v>
       </c>
@@ -4551,202 +4560,205 @@
         <v>78</v>
       </c>
       <c r="O10">
+        <v>44.2</v>
+      </c>
+      <c r="P10">
+        <v>0.23763440899999999</v>
+      </c>
+      <c r="Q10">
+        <v>2.3755656109999999</v>
+      </c>
+      <c r="R10">
+        <v>0.80030487800000005</v>
+      </c>
+      <c r="S10">
+        <v>0.353658537</v>
+      </c>
+      <c r="T10">
+        <v>1.049773756</v>
+      </c>
+      <c r="U10">
+        <v>0.57317073200000002</v>
+      </c>
+      <c r="V10">
+        <v>1.7013574659999999</v>
+      </c>
+      <c r="W10">
+        <v>525</v>
+      </c>
+      <c r="X10">
+        <v>232</v>
+      </c>
+      <c r="Y10">
+        <v>376</v>
+      </c>
+      <c r="Z10">
+        <v>3.0608365019999999</v>
+      </c>
+      <c r="AA10">
+        <v>0.40091463399999999</v>
+      </c>
+      <c r="AB10">
+        <v>1.227134146</v>
+      </c>
+      <c r="AC10">
+        <v>3.0608365019999999</v>
+      </c>
+      <c r="AD10">
+        <v>0.26067073200000002</v>
+      </c>
+      <c r="AE10">
+        <v>0.65019011400000004</v>
+      </c>
+      <c r="AF10">
+        <v>0.29420731700000002</v>
+      </c>
+      <c r="AG10">
+        <v>0.733840304</v>
+      </c>
+      <c r="AH10">
+        <v>805</v>
+      </c>
+      <c r="AI10">
+        <v>171</v>
+      </c>
+      <c r="AJ10">
+        <v>193</v>
+      </c>
+      <c r="AK10">
         <v>292</v>
       </c>
-      <c r="P10">
+      <c r="AL10">
         <v>400</v>
       </c>
-      <c r="Q10">
+      <c r="AM10">
         <v>239</v>
       </c>
-      <c r="R10">
+      <c r="AN10">
         <v>213</v>
       </c>
-      <c r="S10">
+      <c r="AO10">
         <v>639</v>
       </c>
-      <c r="T10">
+      <c r="AP10">
         <v>452</v>
       </c>
-      <c r="U10">
+      <c r="AQ10">
         <v>852</v>
       </c>
-      <c r="V10">
+      <c r="AR10">
         <v>760</v>
       </c>
-      <c r="W10">
+      <c r="AS10">
         <v>754</v>
       </c>
-      <c r="X10">
+      <c r="AT10">
         <v>1393</v>
       </c>
-      <c r="Y10">
+      <c r="AU10">
         <v>852</v>
       </c>
-      <c r="Z10">
+      <c r="AV10">
         <v>937</v>
       </c>
-      <c r="AA10">
+      <c r="AW10">
         <v>754</v>
       </c>
-      <c r="AB10">
+      <c r="AX10">
         <v>1.39</v>
       </c>
-      <c r="AC10">
+      <c r="AY10">
         <v>3.68</v>
       </c>
-      <c r="AD10">
+      <c r="AZ10">
         <v>2.4500000000000002</v>
       </c>
-      <c r="AE10">
+      <c r="BA10">
         <v>50.873523990000002</v>
       </c>
-      <c r="AF10">
+      <c r="BB10">
         <v>48.793817199999999</v>
       </c>
-      <c r="AG10">
+      <c r="BC10">
         <v>35.90608572</v>
       </c>
-      <c r="AH10">
+      <c r="BD10">
         <v>36.539208909999999</v>
       </c>
-      <c r="AI10">
+      <c r="BE10">
         <v>70.500184329999996</v>
       </c>
-      <c r="AJ10">
+      <c r="BF10">
         <v>62.961290320000003</v>
       </c>
-      <c r="AK10">
+      <c r="BG10">
         <v>64</v>
       </c>
-      <c r="AL10">
+      <c r="BH10">
         <v>72.536666670000002</v>
       </c>
-      <c r="AM10">
+      <c r="BI10">
         <v>65.461290320000003</v>
       </c>
-      <c r="AN10">
+      <c r="BJ10">
         <v>871.35</v>
       </c>
-      <c r="AO10">
+      <c r="BK10">
         <v>5.8</v>
       </c>
-      <c r="AP10">
+      <c r="BL10">
         <v>28.2</v>
       </c>
-      <c r="AQ10">
+      <c r="BM10">
         <v>28.2</v>
       </c>
-      <c r="AR10">
+      <c r="BN10">
         <v>48.2</v>
       </c>
-      <c r="AS10">
+      <c r="BO10">
         <v>10.4</v>
       </c>
-      <c r="AT10">
+      <c r="BP10">
         <v>35.799999999999997</v>
       </c>
-      <c r="AU10">
+      <c r="BQ10">
         <v>34</v>
       </c>
-      <c r="AV10">
+      <c r="BR10">
         <v>38.700000000000003</v>
       </c>
-      <c r="AW10">
+      <c r="BS10">
         <v>87</v>
       </c>
-      <c r="AX10">
+      <c r="BT10">
         <v>97.4</v>
       </c>
-      <c r="AY10">
+      <c r="BU10">
         <v>133.19999999999999</v>
       </c>
-      <c r="AZ10">
+      <c r="BV10">
         <v>58.7</v>
       </c>
-      <c r="BA10">
+      <c r="BW10">
         <v>94.5</v>
       </c>
-      <c r="BB10">
+      <c r="BX10">
         <v>46.2</v>
       </c>
-      <c r="BC10">
+      <c r="BY10">
         <v>5</v>
       </c>
-      <c r="BD10">
+      <c r="BZ10">
         <v>1789</v>
       </c>
-      <c r="BE10">
+      <c r="CA10">
         <v>5.07</v>
       </c>
-      <c r="BF10">
-        <v>44.2</v>
-      </c>
-      <c r="BG10">
-        <v>0.23763440899999999</v>
-      </c>
-      <c r="BH10">
-        <v>2.3755656109999999</v>
-      </c>
-      <c r="BI10">
-        <v>0.80030487800000005</v>
-      </c>
-      <c r="BJ10">
-        <v>0.353658537</v>
-      </c>
-      <c r="BK10">
-        <v>1.049773756</v>
-      </c>
-      <c r="BL10">
-        <v>0.57317073200000002</v>
-      </c>
-      <c r="BM10">
-        <v>1.7013574659999999</v>
-      </c>
-      <c r="BN10">
-        <v>525</v>
-      </c>
-      <c r="BO10">
-        <v>232</v>
-      </c>
-      <c r="BP10">
-        <v>376</v>
-      </c>
-      <c r="BQ10">
-        <v>3.0608365019999999</v>
-      </c>
-      <c r="BR10">
-        <v>0.40091463399999999</v>
-      </c>
-      <c r="BS10">
-        <v>1.227134146</v>
-      </c>
-      <c r="BT10">
-        <v>3.0608365019999999</v>
-      </c>
-      <c r="BU10">
-        <v>0.26067073200000002</v>
-      </c>
-      <c r="BV10">
-        <v>0.65019011400000004</v>
-      </c>
-      <c r="BW10">
-        <v>0.29420731700000002</v>
-      </c>
-      <c r="BX10">
-        <v>0.733840304</v>
-      </c>
-      <c r="BY10">
-        <v>805</v>
-      </c>
-      <c r="BZ10">
-        <v>171</v>
-      </c>
-      <c r="CA10">
+      <c r="CW10">
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -4775,202 +4787,205 @@
         <v>14</v>
       </c>
       <c r="O11">
+        <v>22</v>
+      </c>
+      <c r="P11">
+        <v>0.14379085</v>
+      </c>
+      <c r="Q11">
+        <v>2.5454545460000002</v>
+      </c>
+      <c r="R11">
+        <v>0.36601307199999999</v>
+      </c>
+      <c r="S11">
+        <v>0.35294117699999999</v>
+      </c>
+      <c r="T11">
+        <v>2.4545454549999999</v>
+      </c>
+      <c r="U11">
+        <v>0.29084967299999998</v>
+      </c>
+      <c r="V11">
+        <v>2.0227272730000001</v>
+      </c>
+      <c r="W11">
+        <v>112</v>
+      </c>
+      <c r="X11">
+        <v>108</v>
+      </c>
+      <c r="Y11">
+        <v>89</v>
+      </c>
+      <c r="Z11">
+        <v>2.307692308</v>
+      </c>
+      <c r="AA11">
+        <v>4.2483659999999999E-2</v>
+      </c>
+      <c r="AB11">
+        <v>9.8039215999999998E-2</v>
+      </c>
+      <c r="AC11">
+        <v>2.307692308</v>
+      </c>
+      <c r="AD11">
+        <v>1.9607843E-2</v>
+      </c>
+      <c r="AE11">
+        <v>0.46153846199999998</v>
+      </c>
+      <c r="AF11">
+        <v>9.8039219999999996E-3</v>
+      </c>
+      <c r="AG11">
+        <v>0.23076923099999999</v>
+      </c>
+      <c r="AH11">
+        <v>30</v>
+      </c>
+      <c r="AI11">
+        <v>6</v>
+      </c>
+      <c r="AJ11">
+        <v>3</v>
+      </c>
+      <c r="AK11">
         <v>275</v>
       </c>
-      <c r="P11">
+      <c r="AL11">
         <v>503</v>
       </c>
-      <c r="Q11">
+      <c r="AM11">
         <v>360</v>
       </c>
-      <c r="R11">
+      <c r="AN11">
         <v>222</v>
       </c>
-      <c r="S11">
+      <c r="AO11">
         <v>863</v>
       </c>
-      <c r="T11">
+      <c r="AP11">
         <v>582</v>
       </c>
-      <c r="U11">
+      <c r="AQ11">
         <v>1085</v>
       </c>
-      <c r="V11">
+      <c r="AR11">
         <v>868</v>
       </c>
-      <c r="W11">
+      <c r="AS11">
         <v>746</v>
       </c>
-      <c r="X11">
+      <c r="AT11">
         <v>1609</v>
       </c>
-      <c r="Y11">
+      <c r="AU11">
         <v>1085</v>
       </c>
-      <c r="Z11">
+      <c r="AV11">
         <v>959</v>
       </c>
-      <c r="AA11">
+      <c r="AW11">
         <v>746</v>
       </c>
-      <c r="AB11">
+      <c r="AX11">
         <v>5.14</v>
       </c>
-      <c r="AC11">
+      <c r="AY11">
         <v>8.7899999999999991</v>
       </c>
-      <c r="AD11">
+      <c r="AZ11">
         <v>8.1199999999999992</v>
       </c>
-      <c r="AE11">
+      <c r="BA11">
         <v>51.370465950000003</v>
       </c>
-      <c r="AF11">
+      <c r="BB11">
         <v>48.119546849999999</v>
       </c>
-      <c r="AG11">
+      <c r="BC11">
         <v>37.654874550000002</v>
       </c>
-      <c r="AH11">
+      <c r="BD11">
         <v>37.219662059999997</v>
       </c>
-      <c r="AI11">
+      <c r="BE11">
         <v>69.876379929999999</v>
       </c>
-      <c r="AJ11">
+      <c r="BF11">
         <v>61.323003069999999</v>
       </c>
-      <c r="AK11">
+      <c r="BG11">
         <v>57.246428569999999</v>
       </c>
-      <c r="AL11">
+      <c r="BH11">
         <v>76.806666669999998</v>
       </c>
-      <c r="AM11">
+      <c r="BI11">
         <v>66.467741939999996</v>
       </c>
-      <c r="AN11">
+      <c r="BJ11">
         <v>843.875</v>
       </c>
-      <c r="AO11">
+      <c r="BK11">
         <v>5.6</v>
       </c>
-      <c r="AP11">
+      <c r="BL11">
         <v>82</v>
       </c>
-      <c r="AQ11">
+      <c r="BM11">
         <v>44.1</v>
       </c>
-      <c r="AR11">
+      <c r="BN11">
         <v>58.7</v>
       </c>
-      <c r="AS11">
+      <c r="BO11">
         <v>105.7</v>
       </c>
-      <c r="AT11">
+      <c r="BP11">
         <v>61.7</v>
       </c>
-      <c r="AU11">
+      <c r="BQ11">
         <v>87.6</v>
       </c>
-      <c r="AV11">
+      <c r="BR11">
         <v>131.69999999999999</v>
       </c>
-      <c r="AW11">
+      <c r="BS11">
         <v>190.4</v>
       </c>
-      <c r="AX11">
+      <c r="BT11">
         <v>296.10000000000002</v>
       </c>
-      <c r="AY11">
+      <c r="BU11">
         <v>357.8</v>
       </c>
-      <c r="AZ11">
+      <c r="BV11">
         <v>164.4</v>
       </c>
-      <c r="BA11">
+      <c r="BW11">
         <v>226.1</v>
       </c>
-      <c r="BB11">
+      <c r="BX11">
         <v>167.4</v>
       </c>
-      <c r="BC11">
+      <c r="BY11">
         <v>4</v>
       </c>
-      <c r="BD11">
+      <c r="BZ11">
         <v>2044</v>
       </c>
-      <c r="BE11">
+      <c r="CA11">
         <v>13.93</v>
       </c>
-      <c r="BF11">
-        <v>22</v>
-      </c>
-      <c r="BG11">
-        <v>0.14379085</v>
-      </c>
-      <c r="BH11">
-        <v>2.5454545460000002</v>
-      </c>
-      <c r="BI11">
-        <v>0.36601307199999999</v>
-      </c>
-      <c r="BJ11">
-        <v>0.35294117699999999</v>
-      </c>
-      <c r="BK11">
-        <v>2.4545454549999999</v>
-      </c>
-      <c r="BL11">
-        <v>0.29084967299999998</v>
-      </c>
-      <c r="BM11">
-        <v>2.0227272730000001</v>
-      </c>
-      <c r="BN11">
-        <v>112</v>
-      </c>
-      <c r="BO11">
-        <v>108</v>
-      </c>
-      <c r="BP11">
-        <v>89</v>
-      </c>
-      <c r="BQ11">
-        <v>2.307692308</v>
-      </c>
-      <c r="BR11">
-        <v>4.2483659999999999E-2</v>
-      </c>
-      <c r="BS11">
-        <v>9.8039215999999998E-2</v>
-      </c>
-      <c r="BT11">
-        <v>2.307692308</v>
-      </c>
-      <c r="BU11">
-        <v>1.9607843E-2</v>
-      </c>
-      <c r="BV11">
-        <v>0.46153846199999998</v>
-      </c>
-      <c r="BW11">
-        <v>9.8039219999999996E-3</v>
-      </c>
-      <c r="BX11">
-        <v>0.23076923099999999</v>
-      </c>
-      <c r="BY11">
-        <v>30</v>
-      </c>
-      <c r="BZ11">
-        <v>6</v>
-      </c>
-      <c r="CA11">
+      <c r="CW11">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2019</v>
       </c>
@@ -5014,202 +5029,205 @@
         <v>151</v>
       </c>
       <c r="O12">
+        <v>49.8</v>
+      </c>
+      <c r="P12">
+        <v>0.38604651200000001</v>
+      </c>
+      <c r="Q12">
+        <v>3.8554216870000002</v>
+      </c>
+      <c r="R12">
+        <v>1.6666666670000001</v>
+      </c>
+      <c r="S12">
+        <v>0.92881944400000005</v>
+      </c>
+      <c r="T12">
+        <v>2.1485943779999999</v>
+      </c>
+      <c r="U12">
+        <v>0.42881944399999999</v>
+      </c>
+      <c r="V12">
+        <v>0.97991967899999999</v>
+      </c>
+      <c r="W12">
+        <v>960</v>
+      </c>
+      <c r="X12">
+        <v>535</v>
+      </c>
+      <c r="Y12">
+        <v>247</v>
+      </c>
+      <c r="Z12">
+        <v>2.9085714290000002</v>
+      </c>
+      <c r="AA12">
+        <v>0.30381944399999999</v>
+      </c>
+      <c r="AB12">
+        <v>0.88368055599999995</v>
+      </c>
+      <c r="AC12">
+        <v>2.9085714290000002</v>
+      </c>
+      <c r="AD12">
+        <v>0.30902777799999998</v>
+      </c>
+      <c r="AE12">
+        <v>1.0171428570000001</v>
+      </c>
+      <c r="AF12">
+        <v>5.9027778000000003E-2</v>
+      </c>
+      <c r="AG12">
+        <v>0.194285714</v>
+      </c>
+      <c r="AH12">
+        <v>509</v>
+      </c>
+      <c r="AI12">
+        <v>178</v>
+      </c>
+      <c r="AJ12">
+        <v>34</v>
+      </c>
+      <c r="AK12">
         <v>275</v>
       </c>
-      <c r="P12">
+      <c r="AL12">
         <v>503</v>
       </c>
-      <c r="Q12">
+      <c r="AM12">
         <v>360</v>
       </c>
-      <c r="R12">
+      <c r="AN12">
         <v>222</v>
       </c>
-      <c r="S12">
+      <c r="AO12">
         <v>863</v>
       </c>
-      <c r="T12">
+      <c r="AP12">
         <v>582</v>
       </c>
-      <c r="U12">
+      <c r="AQ12">
         <v>1085</v>
       </c>
-      <c r="V12">
+      <c r="AR12">
         <v>868</v>
       </c>
-      <c r="W12">
+      <c r="AS12">
         <v>746</v>
       </c>
-      <c r="X12">
+      <c r="AT12">
         <v>1609</v>
       </c>
-      <c r="Y12">
+      <c r="AU12">
         <v>1085</v>
       </c>
-      <c r="Z12">
+      <c r="AV12">
         <v>959</v>
       </c>
-      <c r="AA12">
+      <c r="AW12">
         <v>746</v>
       </c>
-      <c r="AB12">
+      <c r="AX12">
         <v>5.14</v>
       </c>
-      <c r="AC12">
+      <c r="AY12">
         <v>8.7899999999999991</v>
       </c>
-      <c r="AD12">
+      <c r="AZ12">
         <v>8.1199999999999992</v>
       </c>
-      <c r="AE12">
+      <c r="BA12">
         <v>51.370465950000003</v>
       </c>
-      <c r="AF12">
+      <c r="BB12">
         <v>48.119546849999999</v>
       </c>
-      <c r="AG12">
+      <c r="BC12">
         <v>37.654874550000002</v>
       </c>
-      <c r="AH12">
+      <c r="BD12">
         <v>37.219662059999997</v>
       </c>
-      <c r="AI12">
+      <c r="BE12">
         <v>69.876379929999999</v>
       </c>
-      <c r="AJ12">
+      <c r="BF12">
         <v>61.323003069999999</v>
       </c>
-      <c r="AK12">
+      <c r="BG12">
         <v>57.246428569999999</v>
       </c>
-      <c r="AL12">
+      <c r="BH12">
         <v>76.806666669999998</v>
       </c>
-      <c r="AM12">
+      <c r="BI12">
         <v>66.467741939999996</v>
       </c>
-      <c r="AN12">
+      <c r="BJ12">
         <v>372.34120000000001</v>
       </c>
-      <c r="AO12">
+      <c r="BK12">
         <v>5.6</v>
       </c>
-      <c r="AP12">
+      <c r="BL12">
         <v>82</v>
       </c>
-      <c r="AQ12">
+      <c r="BM12">
         <v>44.1</v>
       </c>
-      <c r="AR12">
+      <c r="BN12">
         <v>58.7</v>
       </c>
-      <c r="AS12">
+      <c r="BO12">
         <v>105.7</v>
       </c>
-      <c r="AT12">
+      <c r="BP12">
         <v>61.7</v>
       </c>
-      <c r="AU12">
+      <c r="BQ12">
         <v>87.6</v>
       </c>
-      <c r="AV12">
+      <c r="BR12">
         <v>131.69999999999999</v>
       </c>
-      <c r="AW12">
+      <c r="BS12">
         <v>190.4</v>
       </c>
-      <c r="AX12">
+      <c r="BT12">
         <v>296.10000000000002</v>
       </c>
-      <c r="AY12">
+      <c r="BU12">
         <v>357.8</v>
       </c>
-      <c r="AZ12">
+      <c r="BV12">
         <v>164.4</v>
       </c>
-      <c r="BA12">
+      <c r="BW12">
         <v>226.1</v>
       </c>
-      <c r="BB12">
+      <c r="BX12">
         <v>167.4</v>
       </c>
-      <c r="BC12">
+      <c r="BY12">
         <v>3</v>
       </c>
-      <c r="BD12">
+      <c r="BZ12">
         <v>2044</v>
       </c>
-      <c r="BE12">
+      <c r="CA12">
         <v>13.93</v>
       </c>
-      <c r="BF12">
-        <v>49.8</v>
-      </c>
-      <c r="BG12">
-        <v>0.38604651200000001</v>
-      </c>
-      <c r="BH12">
-        <v>3.8554216870000002</v>
-      </c>
-      <c r="BI12">
-        <v>1.6666666670000001</v>
-      </c>
-      <c r="BJ12">
-        <v>0.92881944400000005</v>
-      </c>
-      <c r="BK12">
-        <v>2.1485943779999999</v>
-      </c>
-      <c r="BL12">
-        <v>0.42881944399999999</v>
-      </c>
-      <c r="BM12">
-        <v>0.97991967899999999</v>
-      </c>
-      <c r="BN12">
-        <v>960</v>
-      </c>
-      <c r="BO12">
-        <v>535</v>
-      </c>
-      <c r="BP12">
-        <v>247</v>
-      </c>
-      <c r="BQ12">
-        <v>2.9085714290000002</v>
-      </c>
-      <c r="BR12">
-        <v>0.30381944399999999</v>
-      </c>
-      <c r="BS12">
-        <v>0.88368055599999995</v>
-      </c>
-      <c r="BT12">
-        <v>2.9085714290000002</v>
-      </c>
-      <c r="BU12">
-        <v>0.30902777799999998</v>
-      </c>
-      <c r="BV12">
-        <v>1.0171428570000001</v>
-      </c>
-      <c r="BW12">
-        <v>5.9027778000000003E-2</v>
-      </c>
-      <c r="BX12">
-        <v>0.194285714</v>
-      </c>
-      <c r="BY12">
-        <v>509</v>
-      </c>
-      <c r="BZ12">
-        <v>178</v>
-      </c>
-      <c r="CA12">
+      <c r="CW12">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2019</v>
       </c>
@@ -5253,202 +5271,205 @@
         <v>197</v>
       </c>
       <c r="O13">
+        <v>48.8</v>
+      </c>
+      <c r="P13">
+        <v>0.26236559100000001</v>
+      </c>
+      <c r="Q13">
+        <v>2.659836066</v>
+      </c>
+      <c r="R13">
+        <v>0.89517241400000003</v>
+      </c>
+      <c r="S13">
+        <v>0.92551724099999999</v>
+      </c>
+      <c r="T13">
+        <v>2.75</v>
+      </c>
+      <c r="U13">
+        <v>0.16551724100000001</v>
+      </c>
+      <c r="V13">
+        <v>0.49180327899999998</v>
+      </c>
+      <c r="W13">
+        <v>649</v>
+      </c>
+      <c r="X13">
+        <v>671</v>
+      </c>
+      <c r="Y13">
+        <v>120</v>
+      </c>
+      <c r="Z13">
+        <v>2.9268292680000001</v>
+      </c>
+      <c r="AA13">
+        <v>0.45241379300000001</v>
+      </c>
+      <c r="AB13">
+        <v>1.3241379310000001</v>
+      </c>
+      <c r="AC13">
+        <v>2.9268292680000001</v>
+      </c>
+      <c r="AD13">
+        <v>0.314482759</v>
+      </c>
+      <c r="AE13">
+        <v>0.66768292699999998</v>
+      </c>
+      <c r="AF13">
+        <v>0.266206897</v>
+      </c>
+      <c r="AG13">
+        <v>0.55487804900000004</v>
+      </c>
+      <c r="AH13">
+        <v>960</v>
+      </c>
+      <c r="AI13">
+        <v>228</v>
+      </c>
+      <c r="AJ13">
+        <v>193</v>
+      </c>
+      <c r="AK13">
         <v>275</v>
       </c>
-      <c r="P13">
+      <c r="AL13">
         <v>503</v>
       </c>
-      <c r="Q13">
+      <c r="AM13">
         <v>360</v>
       </c>
-      <c r="R13">
+      <c r="AN13">
         <v>222</v>
       </c>
-      <c r="S13">
+      <c r="AO13">
         <v>863</v>
       </c>
-      <c r="T13">
+      <c r="AP13">
         <v>582</v>
       </c>
-      <c r="U13">
+      <c r="AQ13">
         <v>1085</v>
       </c>
-      <c r="V13">
+      <c r="AR13">
         <v>868</v>
       </c>
-      <c r="W13">
+      <c r="AS13">
         <v>746</v>
       </c>
-      <c r="X13">
+      <c r="AT13">
         <v>1609</v>
       </c>
-      <c r="Y13">
+      <c r="AU13">
         <v>1085</v>
       </c>
-      <c r="Z13">
+      <c r="AV13">
         <v>959</v>
       </c>
-      <c r="AA13">
+      <c r="AW13">
         <v>746</v>
       </c>
-      <c r="AB13">
+      <c r="AX13">
         <v>5.14</v>
       </c>
-      <c r="AC13">
+      <c r="AY13">
         <v>8.7899999999999991</v>
       </c>
-      <c r="AD13">
+      <c r="AZ13">
         <v>8.1199999999999992</v>
       </c>
-      <c r="AE13">
+      <c r="BA13">
         <v>51.370465950000003</v>
       </c>
-      <c r="AF13">
+      <c r="BB13">
         <v>48.119546849999999</v>
       </c>
-      <c r="AG13">
+      <c r="BC13">
         <v>37.654874550000002</v>
       </c>
-      <c r="AH13">
+      <c r="BD13">
         <v>37.219662059999997</v>
       </c>
-      <c r="AI13">
+      <c r="BE13">
         <v>69.876379929999999</v>
       </c>
-      <c r="AJ13">
+      <c r="BF13">
         <v>61.323003069999999</v>
       </c>
-      <c r="AK13">
+      <c r="BG13">
         <v>57.246428569999999</v>
       </c>
-      <c r="AL13">
+      <c r="BH13">
         <v>76.806666669999998</v>
       </c>
-      <c r="AM13">
+      <c r="BI13">
         <v>66.467741939999996</v>
       </c>
-      <c r="AN13">
+      <c r="BJ13">
         <v>871.35</v>
       </c>
-      <c r="AO13">
+      <c r="BK13">
         <v>5.6</v>
       </c>
-      <c r="AP13">
+      <c r="BL13">
         <v>82</v>
       </c>
-      <c r="AQ13">
+      <c r="BM13">
         <v>44.1</v>
       </c>
-      <c r="AR13">
+      <c r="BN13">
         <v>58.7</v>
       </c>
-      <c r="AS13">
+      <c r="BO13">
         <v>105.7</v>
       </c>
-      <c r="AT13">
+      <c r="BP13">
         <v>61.7</v>
       </c>
-      <c r="AU13">
+      <c r="BQ13">
         <v>87.6</v>
       </c>
-      <c r="AV13">
+      <c r="BR13">
         <v>131.69999999999999</v>
       </c>
-      <c r="AW13">
+      <c r="BS13">
         <v>190.4</v>
       </c>
-      <c r="AX13">
+      <c r="BT13">
         <v>296.10000000000002</v>
       </c>
-      <c r="AY13">
+      <c r="BU13">
         <v>357.8</v>
       </c>
-      <c r="AZ13">
+      <c r="BV13">
         <v>164.4</v>
       </c>
-      <c r="BA13">
+      <c r="BW13">
         <v>226.1</v>
       </c>
-      <c r="BB13">
+      <c r="BX13">
         <v>167.4</v>
       </c>
-      <c r="BC13">
+      <c r="BY13">
         <v>4</v>
       </c>
-      <c r="BD13">
+      <c r="BZ13">
         <v>2044</v>
       </c>
-      <c r="BE13">
+      <c r="CA13">
         <v>13.93</v>
       </c>
-      <c r="BF13">
-        <v>48.8</v>
-      </c>
-      <c r="BG13">
-        <v>0.26236559100000001</v>
-      </c>
-      <c r="BH13">
-        <v>2.659836066</v>
-      </c>
-      <c r="BI13">
-        <v>0.89517241400000003</v>
-      </c>
-      <c r="BJ13">
-        <v>0.92551724099999999</v>
-      </c>
-      <c r="BK13">
-        <v>2.75</v>
-      </c>
-      <c r="BL13">
-        <v>0.16551724100000001</v>
-      </c>
-      <c r="BM13">
-        <v>0.49180327899999998</v>
-      </c>
-      <c r="BN13">
-        <v>649</v>
-      </c>
-      <c r="BO13">
-        <v>671</v>
-      </c>
-      <c r="BP13">
-        <v>120</v>
-      </c>
-      <c r="BQ13">
-        <v>2.9268292680000001</v>
-      </c>
-      <c r="BR13">
-        <v>0.45241379300000001</v>
-      </c>
-      <c r="BS13">
-        <v>1.3241379310000001</v>
-      </c>
-      <c r="BT13">
-        <v>2.9268292680000001</v>
-      </c>
-      <c r="BU13">
-        <v>0.314482759</v>
-      </c>
-      <c r="BV13">
-        <v>0.66768292699999998</v>
-      </c>
-      <c r="BW13">
-        <v>0.266206897</v>
-      </c>
-      <c r="BX13">
-        <v>0.55487804900000004</v>
-      </c>
-      <c r="BY13">
-        <v>960</v>
-      </c>
-      <c r="BZ13">
-        <v>228</v>
-      </c>
-      <c r="CA13">
+      <c r="CW13">
         <v>193</v>
       </c>
     </row>
-    <row r="14" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -5492,202 +5513,205 @@
         <v>17</v>
       </c>
       <c r="O14">
+        <v>20</v>
+      </c>
+      <c r="P14">
+        <v>0.110497238</v>
+      </c>
+      <c r="Q14">
+        <v>2.5285714289999999</v>
+      </c>
+      <c r="R14">
+        <v>0.32960893899999999</v>
+      </c>
+      <c r="S14">
+        <v>0.254189944</v>
+      </c>
+      <c r="T14">
+        <v>1.321428571</v>
+      </c>
+      <c r="U14">
+        <v>0.24487895700000001</v>
+      </c>
+      <c r="V14">
+        <v>1.65</v>
+      </c>
+      <c r="W14">
+        <v>354</v>
+      </c>
+      <c r="X14">
+        <v>273</v>
+      </c>
+      <c r="Y14">
+        <v>263</v>
+      </c>
+      <c r="Z14">
+        <v>1.902439024</v>
+      </c>
+      <c r="AA14">
+        <v>3.8175046999999997E-2</v>
+      </c>
+      <c r="AB14">
+        <v>7.2625698000000002E-2</v>
+      </c>
+      <c r="AC14">
+        <v>1.902439024</v>
+      </c>
+      <c r="AD14">
+        <v>5.9590316999999997E-2</v>
+      </c>
+      <c r="AE14">
+        <v>1.5121951220000001</v>
+      </c>
+      <c r="AF14">
+        <v>3.4450651999999998E-2</v>
+      </c>
+      <c r="AG14">
+        <v>0.85365853700000005</v>
+      </c>
+      <c r="AH14">
+        <v>78</v>
+      </c>
+      <c r="AI14">
+        <v>64</v>
+      </c>
+      <c r="AJ14">
+        <v>37</v>
+      </c>
+      <c r="AK14">
         <v>329</v>
       </c>
-      <c r="P14">
+      <c r="AL14">
         <v>458</v>
       </c>
-      <c r="Q14">
+      <c r="AM14">
         <v>277</v>
       </c>
-      <c r="R14">
+      <c r="AN14">
         <v>357</v>
       </c>
-      <c r="S14">
+      <c r="AO14">
         <v>735</v>
       </c>
-      <c r="T14">
+      <c r="AP14">
         <v>634</v>
       </c>
-      <c r="U14">
+      <c r="AQ14">
         <v>1092</v>
       </c>
-      <c r="V14">
+      <c r="AR14">
         <v>860</v>
       </c>
-      <c r="W14">
+      <c r="AS14">
         <v>893</v>
       </c>
-      <c r="X14">
+      <c r="AT14">
         <v>1628</v>
       </c>
-      <c r="Y14">
+      <c r="AU14">
         <v>1092</v>
       </c>
-      <c r="Z14">
+      <c r="AV14">
         <v>985</v>
       </c>
-      <c r="AA14">
+      <c r="AW14">
         <v>893</v>
       </c>
-      <c r="AB14">
+      <c r="AX14">
         <v>4.91</v>
       </c>
-      <c r="AC14">
+      <c r="AY14">
         <v>3.05</v>
       </c>
-      <c r="AD14">
+      <c r="AZ14">
         <v>4.72</v>
       </c>
-      <c r="AE14">
+      <c r="BA14">
         <v>52.068853050000001</v>
       </c>
-      <c r="AF14">
+      <c r="BB14">
         <v>49.691212460000003</v>
       </c>
-      <c r="AG14">
+      <c r="BC14">
         <v>37.263906810000002</v>
       </c>
-      <c r="AH14">
+      <c r="BD14">
         <v>36.224731179999999</v>
       </c>
-      <c r="AI14">
+      <c r="BE14">
         <v>70.968028669999995</v>
       </c>
-      <c r="AJ14">
+      <c r="BF14">
         <v>65.779310350000003</v>
       </c>
-      <c r="AK14">
+      <c r="BG14">
         <v>70.037931029999996</v>
       </c>
-      <c r="AL14">
+      <c r="BH14">
         <v>75.693333330000002</v>
       </c>
-      <c r="AM14">
+      <c r="BI14">
         <v>67.780645160000006</v>
       </c>
-      <c r="AN14">
+      <c r="BJ14">
         <v>843.875</v>
       </c>
-      <c r="AO14">
+      <c r="BK14">
         <v>0</v>
       </c>
-      <c r="AP14">
+      <c r="BL14">
         <v>22.5</v>
       </c>
-      <c r="AQ14">
+      <c r="BM14">
         <v>103.1</v>
       </c>
-      <c r="AR14">
+      <c r="BN14">
         <v>18</v>
       </c>
-      <c r="AS14">
+      <c r="BO14">
         <v>0.8</v>
       </c>
-      <c r="AT14">
+      <c r="BP14">
         <v>60.1</v>
       </c>
-      <c r="AU14">
+      <c r="BQ14">
         <v>22.5</v>
       </c>
-      <c r="AV14">
+      <c r="BR14">
         <v>125.6</v>
       </c>
-      <c r="AW14">
+      <c r="BS14">
         <v>143.6</v>
       </c>
-      <c r="AX14">
+      <c r="BT14">
         <v>144.4</v>
       </c>
-      <c r="AY14">
+      <c r="BU14">
         <v>204.5</v>
       </c>
-      <c r="AZ14">
+      <c r="BV14">
         <v>18.8</v>
       </c>
-      <c r="BA14">
+      <c r="BW14">
         <v>78.900000000000006</v>
       </c>
-      <c r="BB14">
+      <c r="BX14">
         <v>60.9</v>
       </c>
-      <c r="BC14">
+      <c r="BY14">
         <v>3</v>
       </c>
-      <c r="BD14">
+      <c r="BZ14">
         <v>2077</v>
       </c>
-      <c r="BE14">
+      <c r="CA14">
         <v>7.96</v>
       </c>
-      <c r="BF14">
-        <v>20</v>
-      </c>
-      <c r="BG14">
-        <v>0.110497238</v>
-      </c>
-      <c r="BH14">
-        <v>2.5285714289999999</v>
-      </c>
-      <c r="BI14">
-        <v>0.32960893899999999</v>
-      </c>
-      <c r="BJ14">
-        <v>0.254189944</v>
-      </c>
-      <c r="BK14">
-        <v>1.321428571</v>
-      </c>
-      <c r="BL14">
-        <v>0.24487895700000001</v>
-      </c>
-      <c r="BM14">
-        <v>1.65</v>
-      </c>
-      <c r="BN14">
-        <v>354</v>
-      </c>
-      <c r="BO14">
-        <v>273</v>
-      </c>
-      <c r="BP14">
-        <v>263</v>
-      </c>
-      <c r="BQ14">
-        <v>1.902439024</v>
-      </c>
-      <c r="BR14">
-        <v>3.8175046999999997E-2</v>
-      </c>
-      <c r="BS14">
-        <v>7.2625698000000002E-2</v>
-      </c>
-      <c r="BT14">
-        <v>1.902439024</v>
-      </c>
-      <c r="BU14">
-        <v>5.9590316999999997E-2</v>
-      </c>
-      <c r="BV14">
-        <v>1.5121951220000001</v>
-      </c>
-      <c r="BW14">
-        <v>3.4450651999999998E-2</v>
-      </c>
-      <c r="BX14">
-        <v>0.85365853700000005</v>
-      </c>
-      <c r="BY14">
-        <v>78</v>
-      </c>
-      <c r="BZ14">
-        <v>64</v>
-      </c>
-      <c r="CA14">
+      <c r="CW14">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2020</v>
       </c>
@@ -5731,202 +5755,205 @@
         <v>45</v>
       </c>
       <c r="O15">
+        <v>6</v>
+      </c>
+      <c r="P15">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="Q15">
+        <v>2.0277777779999999</v>
+      </c>
+      <c r="R15">
+        <v>9.1364205000000004E-2</v>
+      </c>
+      <c r="S15">
+        <v>6.5081351999999995E-2</v>
+      </c>
+      <c r="T15">
+        <v>0.80555555599999995</v>
+      </c>
+      <c r="U15">
+        <v>0.117647059</v>
+      </c>
+      <c r="V15">
+        <v>1.611111111</v>
+      </c>
+      <c r="W15">
+        <v>73</v>
+      </c>
+      <c r="X15">
+        <v>52</v>
+      </c>
+      <c r="Y15">
+        <v>94</v>
+      </c>
+      <c r="Z15">
+        <v>2.151515152</v>
+      </c>
+      <c r="AA15">
+        <v>8.2603254000000001E-2</v>
+      </c>
+      <c r="AB15">
+        <v>0.17772215299999999</v>
+      </c>
+      <c r="AC15">
+        <v>2.151515152</v>
+      </c>
+      <c r="AD15">
+        <v>0.10012515600000001</v>
+      </c>
+      <c r="AE15">
+        <v>1.136363636</v>
+      </c>
+      <c r="AF15">
+        <v>0.155193993</v>
+      </c>
+      <c r="AG15">
+        <v>1.242424242</v>
+      </c>
+      <c r="AH15">
+        <v>142</v>
+      </c>
+      <c r="AI15">
+        <v>80</v>
+      </c>
+      <c r="AJ15">
+        <v>124</v>
+      </c>
+      <c r="AK15">
         <v>329</v>
       </c>
-      <c r="P15">
+      <c r="AL15">
         <v>458</v>
       </c>
-      <c r="Q15">
+      <c r="AM15">
         <v>277</v>
       </c>
-      <c r="R15">
+      <c r="AN15">
         <v>357</v>
       </c>
-      <c r="S15">
+      <c r="AO15">
         <v>735</v>
       </c>
-      <c r="T15">
+      <c r="AP15">
         <v>634</v>
       </c>
-      <c r="U15">
+      <c r="AQ15">
         <v>1092</v>
       </c>
-      <c r="V15">
+      <c r="AR15">
         <v>860</v>
       </c>
-      <c r="W15">
+      <c r="AS15">
         <v>893</v>
       </c>
-      <c r="X15">
+      <c r="AT15">
         <v>1628</v>
       </c>
-      <c r="Y15">
+      <c r="AU15">
         <v>1092</v>
       </c>
-      <c r="Z15">
+      <c r="AV15">
         <v>985</v>
       </c>
-      <c r="AA15">
+      <c r="AW15">
         <v>893</v>
       </c>
-      <c r="AB15">
+      <c r="AX15">
         <v>4.91</v>
       </c>
-      <c r="AC15">
+      <c r="AY15">
         <v>3.05</v>
       </c>
-      <c r="AD15">
+      <c r="AZ15">
         <v>4.72</v>
       </c>
-      <c r="AE15">
+      <c r="BA15">
         <v>52.068853050000001</v>
       </c>
-      <c r="AF15">
+      <c r="BB15">
         <v>49.691212460000003</v>
       </c>
-      <c r="AG15">
+      <c r="BC15">
         <v>37.263906810000002</v>
       </c>
-      <c r="AH15">
+      <c r="BD15">
         <v>36.224731179999999</v>
       </c>
-      <c r="AI15">
+      <c r="BE15">
         <v>70.968028669999995</v>
       </c>
-      <c r="AJ15">
+      <c r="BF15">
         <v>65.779310350000003</v>
       </c>
-      <c r="AK15">
+      <c r="BG15">
         <v>70.037931029999996</v>
       </c>
-      <c r="AL15">
+      <c r="BH15">
         <v>75.693333330000002</v>
       </c>
-      <c r="AM15">
+      <c r="BI15">
         <v>67.780645160000006</v>
       </c>
-      <c r="AN15">
+      <c r="BJ15">
         <v>372.34120000000001</v>
       </c>
-      <c r="AO15">
+      <c r="BK15">
         <v>0</v>
       </c>
-      <c r="AP15">
+      <c r="BL15">
         <v>22.5</v>
       </c>
-      <c r="AQ15">
+      <c r="BM15">
         <v>103.1</v>
       </c>
-      <c r="AR15">
+      <c r="BN15">
         <v>18</v>
       </c>
-      <c r="AS15">
+      <c r="BO15">
         <v>0.8</v>
       </c>
-      <c r="AT15">
+      <c r="BP15">
         <v>60.1</v>
       </c>
-      <c r="AU15">
+      <c r="BQ15">
         <v>22.5</v>
       </c>
-      <c r="AV15">
+      <c r="BR15">
         <v>125.6</v>
       </c>
-      <c r="AW15">
+      <c r="BS15">
         <v>143.6</v>
       </c>
-      <c r="AX15">
+      <c r="BT15">
         <v>144.4</v>
       </c>
-      <c r="AY15">
+      <c r="BU15">
         <v>204.5</v>
       </c>
-      <c r="AZ15">
+      <c r="BV15">
         <v>18.8</v>
       </c>
-      <c r="BA15">
+      <c r="BW15">
         <v>78.900000000000006</v>
       </c>
-      <c r="BB15">
+      <c r="BX15">
         <v>60.9</v>
       </c>
-      <c r="BC15">
+      <c r="BY15">
         <v>2</v>
       </c>
-      <c r="BD15">
+      <c r="BZ15">
         <v>2077</v>
       </c>
-      <c r="BE15">
+      <c r="CA15">
         <v>7.96</v>
       </c>
-      <c r="BF15">
-        <v>6</v>
-      </c>
-      <c r="BG15">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="BH15">
-        <v>2.0277777779999999</v>
-      </c>
-      <c r="BI15">
-        <v>9.1364205000000004E-2</v>
-      </c>
-      <c r="BJ15">
-        <v>6.5081351999999995E-2</v>
-      </c>
-      <c r="BK15">
-        <v>0.80555555599999995</v>
-      </c>
-      <c r="BL15">
-        <v>0.117647059</v>
-      </c>
-      <c r="BM15">
-        <v>1.611111111</v>
-      </c>
-      <c r="BN15">
-        <v>73</v>
-      </c>
-      <c r="BO15">
-        <v>52</v>
-      </c>
-      <c r="BP15">
-        <v>94</v>
-      </c>
-      <c r="BQ15">
-        <v>2.151515152</v>
-      </c>
-      <c r="BR15">
-        <v>8.2603254000000001E-2</v>
-      </c>
-      <c r="BS15">
-        <v>0.17772215299999999</v>
-      </c>
-      <c r="BT15">
-        <v>2.151515152</v>
-      </c>
-      <c r="BU15">
-        <v>0.10012515600000001</v>
-      </c>
-      <c r="BV15">
-        <v>1.136363636</v>
-      </c>
-      <c r="BW15">
-        <v>0.155193993</v>
-      </c>
-      <c r="BX15">
-        <v>1.242424242</v>
-      </c>
-      <c r="BY15">
-        <v>142</v>
-      </c>
-      <c r="BZ15">
-        <v>80</v>
-      </c>
-      <c r="CA15">
+      <c r="CW15">
         <v>124</v>
       </c>
     </row>
-    <row r="16" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2020</v>
       </c>
@@ -5970,202 +5997,205 @@
         <v>82</v>
       </c>
       <c r="O16">
+        <v>25</v>
+      </c>
+      <c r="P16">
+        <v>0.13089005200000001</v>
+      </c>
+      <c r="Q16">
+        <v>2.2171428569999998</v>
+      </c>
+      <c r="R16">
+        <v>0.33134073400000003</v>
+      </c>
+      <c r="S16">
+        <v>0.230572161</v>
+      </c>
+      <c r="T16">
+        <v>0.95428571399999995</v>
+      </c>
+      <c r="U16">
+        <v>0.254483348</v>
+      </c>
+      <c r="V16">
+        <v>1.4628571429999999</v>
+      </c>
+      <c r="W16">
+        <v>388</v>
+      </c>
+      <c r="X16">
+        <v>270</v>
+      </c>
+      <c r="Y16">
+        <v>298</v>
+      </c>
+      <c r="Z16">
+        <v>2.2816901409999999</v>
+      </c>
+      <c r="AA16">
+        <v>0.18189581599999999</v>
+      </c>
+      <c r="AB16">
+        <v>0.41502988899999999</v>
+      </c>
+      <c r="AC16">
+        <v>2.2816901409999999</v>
+      </c>
+      <c r="AD16">
+        <v>0.211784799</v>
+      </c>
+      <c r="AE16">
+        <v>0.97652582200000004</v>
+      </c>
+      <c r="AF16">
+        <v>0.41246797600000001</v>
+      </c>
+      <c r="AG16">
+        <v>1.7511737089999999</v>
+      </c>
+      <c r="AH16">
+        <v>486</v>
+      </c>
+      <c r="AI16">
+        <v>248</v>
+      </c>
+      <c r="AJ16">
+        <v>483</v>
+      </c>
+      <c r="AK16">
         <v>329</v>
       </c>
-      <c r="P16">
+      <c r="AL16">
         <v>458</v>
       </c>
-      <c r="Q16">
+      <c r="AM16">
         <v>277</v>
       </c>
-      <c r="R16">
+      <c r="AN16">
         <v>357</v>
       </c>
-      <c r="S16">
+      <c r="AO16">
         <v>735</v>
       </c>
-      <c r="T16">
+      <c r="AP16">
         <v>634</v>
       </c>
-      <c r="U16">
+      <c r="AQ16">
         <v>1092</v>
       </c>
-      <c r="V16">
+      <c r="AR16">
         <v>860</v>
       </c>
-      <c r="W16">
+      <c r="AS16">
         <v>893</v>
       </c>
-      <c r="X16">
+      <c r="AT16">
         <v>1628</v>
       </c>
-      <c r="Y16">
+      <c r="AU16">
         <v>1092</v>
       </c>
-      <c r="Z16">
+      <c r="AV16">
         <v>985</v>
       </c>
-      <c r="AA16">
+      <c r="AW16">
         <v>893</v>
       </c>
-      <c r="AB16">
+      <c r="AX16">
         <v>4.91</v>
       </c>
-      <c r="AC16">
+      <c r="AY16">
         <v>3.05</v>
       </c>
-      <c r="AD16">
+      <c r="AZ16">
         <v>4.72</v>
       </c>
-      <c r="AE16">
+      <c r="BA16">
         <v>52.068853050000001</v>
       </c>
-      <c r="AF16">
+      <c r="BB16">
         <v>49.691212460000003</v>
       </c>
-      <c r="AG16">
+      <c r="BC16">
         <v>37.263906810000002</v>
       </c>
-      <c r="AH16">
+      <c r="BD16">
         <v>36.224731179999999</v>
       </c>
-      <c r="AI16">
+      <c r="BE16">
         <v>70.968028669999995</v>
       </c>
-      <c r="AJ16">
+      <c r="BF16">
         <v>65.779310350000003</v>
       </c>
-      <c r="AK16">
+      <c r="BG16">
         <v>70.037931029999996</v>
       </c>
-      <c r="AL16">
+      <c r="BH16">
         <v>75.693333330000002</v>
       </c>
-      <c r="AM16">
+      <c r="BI16">
         <v>67.780645160000006</v>
       </c>
-      <c r="AN16">
+      <c r="BJ16">
         <v>871.35</v>
       </c>
-      <c r="AO16">
+      <c r="BK16">
         <v>0</v>
       </c>
-      <c r="AP16">
+      <c r="BL16">
         <v>22.5</v>
       </c>
-      <c r="AQ16">
+      <c r="BM16">
         <v>103.1</v>
       </c>
-      <c r="AR16">
+      <c r="BN16">
         <v>18</v>
       </c>
-      <c r="AS16">
+      <c r="BO16">
         <v>0.8</v>
       </c>
-      <c r="AT16">
+      <c r="BP16">
         <v>60.1</v>
       </c>
-      <c r="AU16">
+      <c r="BQ16">
         <v>22.5</v>
       </c>
-      <c r="AV16">
+      <c r="BR16">
         <v>125.6</v>
       </c>
-      <c r="AW16">
+      <c r="BS16">
         <v>143.6</v>
       </c>
-      <c r="AX16">
+      <c r="BT16">
         <v>144.4</v>
       </c>
-      <c r="AY16">
+      <c r="BU16">
         <v>204.5</v>
       </c>
-      <c r="AZ16">
+      <c r="BV16">
         <v>18.8</v>
       </c>
-      <c r="BA16">
+      <c r="BW16">
         <v>78.900000000000006</v>
       </c>
-      <c r="BB16">
+      <c r="BX16">
         <v>60.9</v>
       </c>
-      <c r="BC16">
+      <c r="BY16">
         <v>2</v>
       </c>
-      <c r="BD16">
+      <c r="BZ16">
         <v>2077</v>
       </c>
-      <c r="BE16">
+      <c r="CA16">
         <v>7.96</v>
       </c>
-      <c r="BF16">
-        <v>25</v>
-      </c>
-      <c r="BG16">
-        <v>0.13089005200000001</v>
-      </c>
-      <c r="BH16">
-        <v>2.2171428569999998</v>
-      </c>
-      <c r="BI16">
-        <v>0.33134073400000003</v>
-      </c>
-      <c r="BJ16">
-        <v>0.230572161</v>
-      </c>
-      <c r="BK16">
-        <v>0.95428571399999995</v>
-      </c>
-      <c r="BL16">
-        <v>0.254483348</v>
-      </c>
-      <c r="BM16">
-        <v>1.4628571429999999</v>
-      </c>
-      <c r="BN16">
-        <v>388</v>
-      </c>
-      <c r="BO16">
-        <v>270</v>
-      </c>
-      <c r="BP16">
-        <v>298</v>
-      </c>
-      <c r="BQ16">
-        <v>2.2816901409999999</v>
-      </c>
-      <c r="BR16">
-        <v>0.18189581599999999</v>
-      </c>
-      <c r="BS16">
-        <v>0.41502988899999999</v>
-      </c>
-      <c r="BT16">
-        <v>2.2816901409999999</v>
-      </c>
-      <c r="BU16">
-        <v>0.211784799</v>
-      </c>
-      <c r="BV16">
-        <v>0.97652582200000004</v>
-      </c>
-      <c r="BW16">
-        <v>0.41246797600000001</v>
-      </c>
-      <c r="BX16">
-        <v>1.7511737089999999</v>
-      </c>
-      <c r="BY16">
-        <v>486</v>
-      </c>
-      <c r="BZ16">
-        <v>248</v>
-      </c>
-      <c r="CA16">
+      <c r="CW16">
         <v>483</v>
       </c>
     </row>
-    <row r="17" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2021</v>
       </c>
@@ -6209,202 +6239,205 @@
         <v>25</v>
       </c>
       <c r="O17">
+        <v>38.571428570000002</v>
+      </c>
+      <c r="P17">
+        <v>0.228233305</v>
+      </c>
+      <c r="Q17">
+        <v>1.9407407409999999</v>
+      </c>
+      <c r="R17">
+        <v>0.47037701999999998</v>
+      </c>
+      <c r="S17">
+        <v>0.24057450599999999</v>
+      </c>
+      <c r="T17">
+        <v>0.99259259300000002</v>
+      </c>
+      <c r="U17">
+        <v>0.25852782800000002</v>
+      </c>
+      <c r="V17">
+        <v>1.066666667</v>
+      </c>
+      <c r="W17">
+        <v>524</v>
+      </c>
+      <c r="X17">
+        <v>268</v>
+      </c>
+      <c r="Y17">
+        <v>288</v>
+      </c>
+      <c r="Z17">
+        <v>2.1707317069999998</v>
+      </c>
+      <c r="AA17">
+        <v>3.6804309E-2</v>
+      </c>
+      <c r="AB17">
+        <v>7.9892279999999996E-2</v>
+      </c>
+      <c r="AC17">
+        <v>2.1707317069999998</v>
+      </c>
+      <c r="AD17">
+        <v>3.8599640999999997E-2</v>
+      </c>
+      <c r="AE17">
+        <v>1.048780488</v>
+      </c>
+      <c r="AF17">
+        <v>3.4111310999999998E-2</v>
+      </c>
+      <c r="AG17">
+        <v>0.92682926799999998</v>
+      </c>
+      <c r="AH17">
+        <v>89</v>
+      </c>
+      <c r="AI17">
+        <v>43</v>
+      </c>
+      <c r="AJ17">
+        <v>38</v>
+      </c>
+      <c r="AK17">
         <v>311</v>
       </c>
-      <c r="P17">
+      <c r="AL17">
         <v>579</v>
       </c>
-      <c r="Q17">
+      <c r="AM17">
         <v>283</v>
       </c>
-      <c r="R17">
+      <c r="AN17">
         <v>200</v>
       </c>
-      <c r="S17">
+      <c r="AO17">
         <v>862</v>
       </c>
-      <c r="T17">
+      <c r="AP17">
         <v>483</v>
       </c>
-      <c r="U17">
+      <c r="AQ17">
         <v>1062</v>
       </c>
-      <c r="V17">
+      <c r="AR17">
         <v>716</v>
       </c>
-      <c r="W17">
+      <c r="AS17">
         <v>738</v>
       </c>
-      <c r="X17">
+      <c r="AT17">
         <v>1600</v>
       </c>
-      <c r="Y17">
+      <c r="AU17">
         <v>1062</v>
       </c>
-      <c r="Z17">
+      <c r="AV17">
         <v>900</v>
       </c>
-      <c r="AA17">
+      <c r="AW17">
         <v>738</v>
       </c>
-      <c r="AB17">
+      <c r="AX17">
         <v>2.29</v>
       </c>
-      <c r="AC17">
+      <c r="AY17">
         <v>5.55</v>
       </c>
-      <c r="AD17">
+      <c r="AZ17">
         <v>5.52</v>
       </c>
-      <c r="AE17">
+      <c r="BA17">
         <v>51.51089606</v>
       </c>
-      <c r="AF17">
+      <c r="BB17">
         <v>49.197580649999999</v>
       </c>
-      <c r="AG17">
+      <c r="BC17">
         <v>36.915949820000002</v>
       </c>
-      <c r="AH17">
+      <c r="BD17">
         <v>35.235330259999998</v>
       </c>
-      <c r="AI17">
+      <c r="BE17">
         <v>70.576236559999998</v>
       </c>
-      <c r="AJ17">
+      <c r="BF17">
         <v>64.674692780000001</v>
       </c>
-      <c r="AK17">
+      <c r="BG17">
         <v>65.482142859999996</v>
       </c>
-      <c r="AL17">
+      <c r="BH17">
         <v>78.883333329999999</v>
       </c>
-      <c r="AM17">
+      <c r="BI17">
         <v>67.609677419999997</v>
       </c>
-      <c r="AN17">
+      <c r="BJ17">
         <v>843.875</v>
       </c>
-      <c r="AO17">
+      <c r="BK17">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AP17">
+      <c r="BL17">
         <v>25</v>
       </c>
-      <c r="AQ17">
+      <c r="BM17">
         <v>35.200000000000003</v>
       </c>
-      <c r="AR17">
+      <c r="BN17">
         <v>94.2</v>
       </c>
-      <c r="AS17">
+      <c r="BO17">
         <v>12.1</v>
       </c>
-      <c r="AT17">
+      <c r="BP17">
         <v>35.6</v>
       </c>
-      <c r="AU17">
+      <c r="BQ17">
         <v>26.1</v>
       </c>
-      <c r="AV17">
+      <c r="BR17">
         <v>61.3</v>
       </c>
-      <c r="AW17">
+      <c r="BS17">
         <v>155.5</v>
       </c>
-      <c r="AX17">
+      <c r="BT17">
         <v>167.6</v>
       </c>
-      <c r="AY17">
+      <c r="BU17">
         <v>203.2</v>
       </c>
-      <c r="AZ17">
+      <c r="BV17">
         <v>106.3</v>
       </c>
-      <c r="BA17">
+      <c r="BW17">
         <v>141.9</v>
       </c>
-      <c r="BB17">
+      <c r="BX17">
         <v>47.7</v>
       </c>
-      <c r="BC17">
+      <c r="BY17">
         <v>0</v>
       </c>
-      <c r="BD17">
+      <c r="BZ17">
         <v>1962</v>
       </c>
-      <c r="BE17">
+      <c r="CA17">
         <v>7.84</v>
       </c>
-      <c r="BF17">
-        <v>38.571428570000002</v>
-      </c>
-      <c r="BG17">
-        <v>0.228233305</v>
-      </c>
-      <c r="BH17">
-        <v>1.9407407409999999</v>
-      </c>
-      <c r="BI17">
-        <v>0.47037701999999998</v>
-      </c>
-      <c r="BJ17">
-        <v>0.24057450599999999</v>
-      </c>
-      <c r="BK17">
-        <v>0.99259259300000002</v>
-      </c>
-      <c r="BL17">
-        <v>0.25852782800000002</v>
-      </c>
-      <c r="BM17">
-        <v>1.066666667</v>
-      </c>
-      <c r="BN17">
-        <v>524</v>
-      </c>
-      <c r="BO17">
-        <v>268</v>
-      </c>
-      <c r="BP17">
-        <v>288</v>
-      </c>
-      <c r="BQ17">
-        <v>2.1707317069999998</v>
-      </c>
-      <c r="BR17">
-        <v>3.6804309E-2</v>
-      </c>
-      <c r="BS17">
-        <v>7.9892279999999996E-2</v>
-      </c>
-      <c r="BT17">
-        <v>2.1707317069999998</v>
-      </c>
-      <c r="BU17">
-        <v>3.8599640999999997E-2</v>
-      </c>
-      <c r="BV17">
-        <v>1.048780488</v>
-      </c>
-      <c r="BW17">
-        <v>3.4111310999999998E-2</v>
-      </c>
-      <c r="BX17">
-        <v>0.92682926799999998</v>
-      </c>
-      <c r="BY17">
-        <v>89</v>
-      </c>
-      <c r="BZ17">
-        <v>43</v>
-      </c>
-      <c r="CA17">
+      <c r="CW17">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2021</v>
       </c>
@@ -6448,202 +6481,205 @@
         <v>62</v>
       </c>
       <c r="O18">
+        <v>64.714285709999999</v>
+      </c>
+      <c r="P18">
+        <v>0.51771428600000002</v>
+      </c>
+      <c r="Q18">
+        <v>2.6710816780000002</v>
+      </c>
+      <c r="R18">
+        <v>1.541401274</v>
+      </c>
+      <c r="S18">
+        <v>1.588535032</v>
+      </c>
+      <c r="T18">
+        <v>2.7527593819999998</v>
+      </c>
+      <c r="U18">
+        <v>1.694267516</v>
+      </c>
+      <c r="V18">
+        <v>2.9359823399999998</v>
+      </c>
+      <c r="W18">
+        <v>1210</v>
+      </c>
+      <c r="X18">
+        <v>1247</v>
+      </c>
+      <c r="Y18">
+        <v>1330</v>
+      </c>
+      <c r="Z18">
+        <v>2.0821917810000001</v>
+      </c>
+      <c r="AA18">
+        <v>0.18598726099999999</v>
+      </c>
+      <c r="AB18">
+        <v>0.387261146</v>
+      </c>
+      <c r="AC18">
+        <v>2.0821917810000001</v>
+      </c>
+      <c r="AD18">
+        <v>0.21783439499999999</v>
+      </c>
+      <c r="AE18">
+        <v>1.171232877</v>
+      </c>
+      <c r="AF18">
+        <v>0.19872611500000001</v>
+      </c>
+      <c r="AG18">
+        <v>1.068493151</v>
+      </c>
+      <c r="AH18">
+        <v>304</v>
+      </c>
+      <c r="AI18">
+        <v>171</v>
+      </c>
+      <c r="AJ18">
+        <v>156</v>
+      </c>
+      <c r="AK18">
         <v>311</v>
       </c>
-      <c r="P18">
+      <c r="AL18">
         <v>579</v>
       </c>
-      <c r="Q18">
+      <c r="AM18">
         <v>283</v>
       </c>
-      <c r="R18">
+      <c r="AN18">
         <v>200</v>
       </c>
-      <c r="S18">
+      <c r="AO18">
         <v>862</v>
       </c>
-      <c r="T18">
+      <c r="AP18">
         <v>483</v>
       </c>
-      <c r="U18">
+      <c r="AQ18">
         <v>1062</v>
       </c>
-      <c r="V18">
+      <c r="AR18">
         <v>716</v>
       </c>
-      <c r="W18">
+      <c r="AS18">
         <v>738</v>
       </c>
-      <c r="X18">
+      <c r="AT18">
         <v>1600</v>
       </c>
-      <c r="Y18">
+      <c r="AU18">
         <v>1062</v>
       </c>
-      <c r="Z18">
+      <c r="AV18">
         <v>900</v>
       </c>
-      <c r="AA18">
+      <c r="AW18">
         <v>738</v>
       </c>
-      <c r="AB18">
+      <c r="AX18">
         <v>2.29</v>
       </c>
-      <c r="AC18">
+      <c r="AY18">
         <v>5.55</v>
       </c>
-      <c r="AD18">
+      <c r="AZ18">
         <v>5.52</v>
       </c>
-      <c r="AE18">
+      <c r="BA18">
         <v>51.51089606</v>
       </c>
-      <c r="AF18">
+      <c r="BB18">
         <v>49.197580649999999</v>
       </c>
-      <c r="AG18">
+      <c r="BC18">
         <v>36.915949820000002</v>
       </c>
-      <c r="AH18">
+      <c r="BD18">
         <v>35.235330259999998</v>
       </c>
-      <c r="AI18">
+      <c r="BE18">
         <v>70.576236559999998</v>
       </c>
-      <c r="AJ18">
+      <c r="BF18">
         <v>64.674692780000001</v>
       </c>
-      <c r="AK18">
+      <c r="BG18">
         <v>65.482142859999996</v>
       </c>
-      <c r="AL18">
+      <c r="BH18">
         <v>78.883333329999999</v>
       </c>
-      <c r="AM18">
+      <c r="BI18">
         <v>67.609677419999997</v>
       </c>
-      <c r="AN18">
+      <c r="BJ18">
         <v>372.34120000000001</v>
       </c>
-      <c r="AO18">
+      <c r="BK18">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AP18">
+      <c r="BL18">
         <v>25</v>
       </c>
-      <c r="AQ18">
+      <c r="BM18">
         <v>35.200000000000003</v>
       </c>
-      <c r="AR18">
+      <c r="BN18">
         <v>94.2</v>
       </c>
-      <c r="AS18">
+      <c r="BO18">
         <v>12.1</v>
       </c>
-      <c r="AT18">
+      <c r="BP18">
         <v>35.6</v>
       </c>
-      <c r="AU18">
+      <c r="BQ18">
         <v>26.1</v>
       </c>
-      <c r="AV18">
+      <c r="BR18">
         <v>61.3</v>
       </c>
-      <c r="AW18">
+      <c r="BS18">
         <v>155.5</v>
       </c>
-      <c r="AX18">
+      <c r="BT18">
         <v>167.6</v>
       </c>
-      <c r="AY18">
+      <c r="BU18">
         <v>203.2</v>
       </c>
-      <c r="AZ18">
+      <c r="BV18">
         <v>106.3</v>
       </c>
-      <c r="BA18">
+      <c r="BW18">
         <v>141.9</v>
       </c>
-      <c r="BB18">
+      <c r="BX18">
         <v>47.7</v>
       </c>
-      <c r="BC18">
+      <c r="BY18">
         <v>0</v>
       </c>
-      <c r="BD18">
+      <c r="BZ18">
         <v>1962</v>
       </c>
-      <c r="BE18">
+      <c r="CA18">
         <v>7.84</v>
       </c>
-      <c r="BF18">
-        <v>64.714285709999999</v>
-      </c>
-      <c r="BG18">
-        <v>0.51771428600000002</v>
-      </c>
-      <c r="BH18">
-        <v>2.6710816780000002</v>
-      </c>
-      <c r="BI18">
-        <v>1.541401274</v>
-      </c>
-      <c r="BJ18">
-        <v>1.588535032</v>
-      </c>
-      <c r="BK18">
-        <v>2.7527593819999998</v>
-      </c>
-      <c r="BL18">
-        <v>1.694267516</v>
-      </c>
-      <c r="BM18">
-        <v>2.9359823399999998</v>
-      </c>
-      <c r="BN18">
-        <v>1210</v>
-      </c>
-      <c r="BO18">
-        <v>1247</v>
-      </c>
-      <c r="BP18">
-        <v>1330</v>
-      </c>
-      <c r="BQ18">
-        <v>2.0821917810000001</v>
-      </c>
-      <c r="BR18">
-        <v>0.18598726099999999</v>
-      </c>
-      <c r="BS18">
-        <v>0.387261146</v>
-      </c>
-      <c r="BT18">
-        <v>2.0821917810000001</v>
-      </c>
-      <c r="BU18">
-        <v>0.21783439499999999</v>
-      </c>
-      <c r="BV18">
-        <v>1.171232877</v>
-      </c>
-      <c r="BW18">
-        <v>0.19872611500000001</v>
-      </c>
-      <c r="BX18">
-        <v>1.068493151</v>
-      </c>
-      <c r="BY18">
-        <v>304</v>
-      </c>
-      <c r="BZ18">
-        <v>171</v>
-      </c>
-      <c r="CA18">
+      <c r="CW18">
         <v>156</v>
       </c>
     </row>
-    <row r="19" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2021</v>
       </c>
@@ -6687,202 +6723,205 @@
         <v>149</v>
       </c>
       <c r="O19">
+        <v>69.142857140000004</v>
+      </c>
+      <c r="P19">
+        <v>0.401993355</v>
+      </c>
+      <c r="Q19">
+        <v>2.1776859499999999</v>
+      </c>
+      <c r="R19">
+        <v>0.89931740599999999</v>
+      </c>
+      <c r="S19">
+        <v>0.74744027300000004</v>
+      </c>
+      <c r="T19">
+        <v>1.8099173550000001</v>
+      </c>
+      <c r="U19">
+        <v>0.79522184299999998</v>
+      </c>
+      <c r="V19">
+        <v>1.9235537190000001</v>
+      </c>
+      <c r="W19">
+        <v>1054</v>
+      </c>
+      <c r="X19">
+        <v>876</v>
+      </c>
+      <c r="Y19">
+        <v>932</v>
+      </c>
+      <c r="Z19">
+        <v>2.202749141</v>
+      </c>
+      <c r="AA19">
+        <v>0.24829351499999999</v>
+      </c>
+      <c r="AB19">
+        <v>0.54692832800000002</v>
+      </c>
+      <c r="AC19">
+        <v>2.202749141</v>
+      </c>
+      <c r="AD19">
+        <v>0.29095563099999999</v>
+      </c>
+      <c r="AE19">
+        <v>1.171821306</v>
+      </c>
+      <c r="AF19">
+        <v>0.37116041</v>
+      </c>
+      <c r="AG19">
+        <v>1.4948453610000001</v>
+      </c>
+      <c r="AH19">
+        <v>641</v>
+      </c>
+      <c r="AI19">
+        <v>341</v>
+      </c>
+      <c r="AJ19">
+        <v>435</v>
+      </c>
+      <c r="AK19">
         <v>311</v>
       </c>
-      <c r="P19">
+      <c r="AL19">
         <v>579</v>
       </c>
-      <c r="Q19">
+      <c r="AM19">
         <v>283</v>
       </c>
-      <c r="R19">
+      <c r="AN19">
         <v>200</v>
       </c>
-      <c r="S19">
+      <c r="AO19">
         <v>862</v>
       </c>
-      <c r="T19">
+      <c r="AP19">
         <v>483</v>
       </c>
-      <c r="U19">
+      <c r="AQ19">
         <v>1062</v>
       </c>
-      <c r="V19">
+      <c r="AR19">
         <v>716</v>
       </c>
-      <c r="W19">
+      <c r="AS19">
         <v>738</v>
       </c>
-      <c r="X19">
+      <c r="AT19">
         <v>1600</v>
       </c>
-      <c r="Y19">
+      <c r="AU19">
         <v>1062</v>
       </c>
-      <c r="Z19">
+      <c r="AV19">
         <v>900</v>
       </c>
-      <c r="AA19">
+      <c r="AW19">
         <v>738</v>
       </c>
-      <c r="AB19">
+      <c r="AX19">
         <v>2.29</v>
       </c>
-      <c r="AC19">
+      <c r="AY19">
         <v>5.55</v>
       </c>
-      <c r="AD19">
+      <c r="AZ19">
         <v>5.52</v>
       </c>
-      <c r="AE19">
+      <c r="BA19">
         <v>51.51089606</v>
       </c>
-      <c r="AF19">
+      <c r="BB19">
         <v>49.197580649999999</v>
       </c>
-      <c r="AG19">
+      <c r="BC19">
         <v>36.915949820000002</v>
       </c>
-      <c r="AH19">
+      <c r="BD19">
         <v>35.235330259999998</v>
       </c>
-      <c r="AI19">
+      <c r="BE19">
         <v>70.576236559999998</v>
       </c>
-      <c r="AJ19">
+      <c r="BF19">
         <v>64.674692780000001</v>
       </c>
-      <c r="AK19">
+      <c r="BG19">
         <v>65.482142859999996</v>
       </c>
-      <c r="AL19">
+      <c r="BH19">
         <v>78.883333329999999</v>
       </c>
-      <c r="AM19">
+      <c r="BI19">
         <v>67.609677419999997</v>
       </c>
-      <c r="AN19">
+      <c r="BJ19">
         <v>871.35</v>
       </c>
-      <c r="AO19">
+      <c r="BK19">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AP19">
+      <c r="BL19">
         <v>25</v>
       </c>
-      <c r="AQ19">
+      <c r="BM19">
         <v>35.200000000000003</v>
       </c>
-      <c r="AR19">
+      <c r="BN19">
         <v>94.2</v>
       </c>
-      <c r="AS19">
+      <c r="BO19">
         <v>12.1</v>
       </c>
-      <c r="AT19">
+      <c r="BP19">
         <v>35.6</v>
       </c>
-      <c r="AU19">
+      <c r="BQ19">
         <v>26.1</v>
       </c>
-      <c r="AV19">
+      <c r="BR19">
         <v>61.3</v>
       </c>
-      <c r="AW19">
+      <c r="BS19">
         <v>155.5</v>
       </c>
-      <c r="AX19">
+      <c r="BT19">
         <v>167.6</v>
       </c>
-      <c r="AY19">
+      <c r="BU19">
         <v>203.2</v>
       </c>
-      <c r="AZ19">
+      <c r="BV19">
         <v>106.3</v>
       </c>
-      <c r="BA19">
+      <c r="BW19">
         <v>141.9</v>
       </c>
-      <c r="BB19">
+      <c r="BX19">
         <v>47.7</v>
       </c>
-      <c r="BC19">
+      <c r="BY19">
         <v>0</v>
       </c>
-      <c r="BD19">
+      <c r="BZ19">
         <v>1962</v>
       </c>
-      <c r="BE19">
+      <c r="CA19">
         <v>7.84</v>
       </c>
-      <c r="BF19">
-        <v>69.142857140000004</v>
-      </c>
-      <c r="BG19">
-        <v>0.401993355</v>
-      </c>
-      <c r="BH19">
-        <v>2.1776859499999999</v>
-      </c>
-      <c r="BI19">
-        <v>0.89931740599999999</v>
-      </c>
-      <c r="BJ19">
-        <v>0.74744027300000004</v>
-      </c>
-      <c r="BK19">
-        <v>1.8099173550000001</v>
-      </c>
-      <c r="BL19">
-        <v>0.79522184299999998</v>
-      </c>
-      <c r="BM19">
-        <v>1.9235537190000001</v>
-      </c>
-      <c r="BN19">
-        <v>1054</v>
-      </c>
-      <c r="BO19">
-        <v>876</v>
-      </c>
-      <c r="BP19">
-        <v>932</v>
-      </c>
-      <c r="BQ19">
-        <v>2.202749141</v>
-      </c>
-      <c r="BR19">
-        <v>0.24829351499999999</v>
-      </c>
-      <c r="BS19">
-        <v>0.54692832800000002</v>
-      </c>
-      <c r="BT19">
-        <v>2.202749141</v>
-      </c>
-      <c r="BU19">
-        <v>0.29095563099999999</v>
-      </c>
-      <c r="BV19">
-        <v>1.171821306</v>
-      </c>
-      <c r="BW19">
-        <v>0.37116041</v>
-      </c>
-      <c r="BX19">
-        <v>1.4948453610000001</v>
-      </c>
-      <c r="BY19">
-        <v>641</v>
-      </c>
-      <c r="BZ19">
-        <v>341</v>
-      </c>
-      <c r="CA19">
+      <c r="CW19">
         <v>435</v>
       </c>
     </row>
-    <row r="20" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2022</v>
       </c>
@@ -6925,116 +6964,116 @@
       <c r="N20">
         <v>95</v>
       </c>
-      <c r="O20">
+      <c r="AK20">
         <v>294</v>
       </c>
-      <c r="P20">
+      <c r="AL20">
         <v>595</v>
       </c>
-      <c r="Q20">
+      <c r="AM20">
         <v>487</v>
       </c>
-      <c r="R20">
+      <c r="AN20">
         <v>181</v>
       </c>
-      <c r="S20">
+      <c r="AO20">
         <v>1082</v>
       </c>
-      <c r="T20">
+      <c r="AP20">
         <v>668</v>
       </c>
-      <c r="U20">
+      <c r="AQ20">
         <v>1263</v>
       </c>
-      <c r="V20">
+      <c r="AR20">
         <v>893</v>
       </c>
-      <c r="W20">
+      <c r="AS20">
         <v>661</v>
       </c>
-      <c r="X20">
+      <c r="AT20">
         <v>1743</v>
       </c>
-      <c r="Y20">
+      <c r="AU20">
         <v>1263</v>
       </c>
-      <c r="Z20">
+      <c r="AV20">
         <v>957</v>
       </c>
-      <c r="AA20">
+      <c r="AW20">
         <v>661</v>
       </c>
-      <c r="AB20">
+      <c r="AX20">
         <v>5.61</v>
       </c>
-      <c r="AC20">
+      <c r="AY20">
         <v>1.24</v>
       </c>
-      <c r="AD20">
+      <c r="AZ20">
         <v>3.68</v>
       </c>
-      <c r="AE20">
+      <c r="BA20">
         <v>52.569892469999999</v>
       </c>
-      <c r="AF20">
+      <c r="BB20">
         <v>48.649692780000002</v>
       </c>
-      <c r="AG20">
+      <c r="BC20">
         <v>41.21548387</v>
       </c>
-      <c r="AH20">
+      <c r="BD20">
         <v>33.72788018</v>
       </c>
-      <c r="AI20">
+      <c r="BE20">
         <v>65.648530469999997</v>
       </c>
-      <c r="AJ20">
+      <c r="BF20">
         <v>66.542434720000003</v>
       </c>
-      <c r="AK20">
+      <c r="BG20">
         <v>66.882142860000002</v>
       </c>
-      <c r="AL20">
+      <c r="BH20">
         <v>74.886666669999997</v>
       </c>
-      <c r="AM20">
+      <c r="BI20">
         <v>72.348387099999997</v>
       </c>
-      <c r="AN20">
+      <c r="BJ20">
         <v>843.875</v>
       </c>
-      <c r="AO20">
+      <c r="BK20">
         <v>44.2</v>
       </c>
-      <c r="AP20">
+      <c r="BL20">
         <v>13.8</v>
       </c>
-      <c r="AQ20">
+      <c r="BM20">
         <v>85.8</v>
       </c>
-      <c r="AR20">
+      <c r="BN20">
         <v>4.5</v>
       </c>
-      <c r="AS20">
+      <c r="BO20">
         <v>6</v>
       </c>
-      <c r="AU20">
+      <c r="BQ20">
         <v>58</v>
       </c>
-      <c r="AV20">
+      <c r="BR20">
         <v>143.80000000000001</v>
       </c>
-      <c r="AW20">
+      <c r="BS20">
         <v>148.30000000000001</v>
       </c>
-      <c r="AX20">
+      <c r="BT20">
         <v>154.30000000000001</v>
       </c>
-      <c r="AZ20">
+      <c r="BV20">
         <v>10.5</v>
       </c>
     </row>
-    <row r="21" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2022</v>
       </c>
@@ -7077,116 +7116,116 @@
       <c r="N21">
         <v>101</v>
       </c>
-      <c r="O21">
+      <c r="AK21">
         <v>294</v>
       </c>
-      <c r="P21">
+      <c r="AL21">
         <v>595</v>
       </c>
-      <c r="Q21">
+      <c r="AM21">
         <v>487</v>
       </c>
-      <c r="R21">
+      <c r="AN21">
         <v>181</v>
       </c>
-      <c r="S21">
+      <c r="AO21">
         <v>1082</v>
       </c>
-      <c r="T21">
+      <c r="AP21">
         <v>668</v>
       </c>
-      <c r="U21">
+      <c r="AQ21">
         <v>1263</v>
       </c>
-      <c r="V21">
+      <c r="AR21">
         <v>893</v>
       </c>
-      <c r="W21">
+      <c r="AS21">
         <v>661</v>
       </c>
-      <c r="X21">
+      <c r="AT21">
         <v>1743</v>
       </c>
-      <c r="Y21">
+      <c r="AU21">
         <v>1263</v>
       </c>
-      <c r="Z21">
+      <c r="AV21">
         <v>957</v>
       </c>
-      <c r="AA21">
+      <c r="AW21">
         <v>661</v>
       </c>
-      <c r="AB21">
+      <c r="AX21">
         <v>5.61</v>
       </c>
-      <c r="AC21">
+      <c r="AY21">
         <v>1.24</v>
       </c>
-      <c r="AD21">
+      <c r="AZ21">
         <v>3.68</v>
       </c>
-      <c r="AE21">
+      <c r="BA21">
         <v>52.569892469999999</v>
       </c>
-      <c r="AF21">
+      <c r="BB21">
         <v>48.649692780000002</v>
       </c>
-      <c r="AG21">
+      <c r="BC21">
         <v>41.21548387</v>
       </c>
-      <c r="AH21">
+      <c r="BD21">
         <v>33.72788018</v>
       </c>
-      <c r="AI21">
+      <c r="BE21">
         <v>65.648530469999997</v>
       </c>
-      <c r="AJ21">
+      <c r="BF21">
         <v>66.542434720000003</v>
       </c>
-      <c r="AK21">
+      <c r="BG21">
         <v>66.882142860000002</v>
       </c>
-      <c r="AL21">
+      <c r="BH21">
         <v>74.886666669999997</v>
       </c>
-      <c r="AM21">
+      <c r="BI21">
         <v>72.348387099999997</v>
       </c>
-      <c r="AN21">
+      <c r="BJ21">
         <v>372.34120000000001</v>
       </c>
-      <c r="AO21">
+      <c r="BK21">
         <v>44.2</v>
       </c>
-      <c r="AP21">
+      <c r="BL21">
         <v>13.8</v>
       </c>
-      <c r="AQ21">
+      <c r="BM21">
         <v>85.8</v>
       </c>
-      <c r="AR21">
+      <c r="BN21">
         <v>4.5</v>
       </c>
-      <c r="AS21">
+      <c r="BO21">
         <v>6</v>
       </c>
-      <c r="AU21">
+      <c r="BQ21">
         <v>58</v>
       </c>
-      <c r="AV21">
+      <c r="BR21">
         <v>143.80000000000001</v>
       </c>
-      <c r="AW21">
+      <c r="BS21">
         <v>148.30000000000001</v>
       </c>
-      <c r="AX21">
+      <c r="BT21">
         <v>154.30000000000001</v>
       </c>
-      <c r="AZ21">
+      <c r="BV21">
         <v>10.5</v>
       </c>
     </row>
-    <row r="22" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2022</v>
       </c>
@@ -7229,112 +7268,112 @@
       <c r="N22">
         <v>59</v>
       </c>
-      <c r="O22">
+      <c r="AK22">
         <v>294</v>
       </c>
-      <c r="P22">
+      <c r="AL22">
         <v>595</v>
       </c>
-      <c r="Q22">
+      <c r="AM22">
         <v>487</v>
       </c>
-      <c r="R22">
+      <c r="AN22">
         <v>181</v>
       </c>
-      <c r="S22">
+      <c r="AO22">
         <v>1082</v>
       </c>
-      <c r="T22">
+      <c r="AP22">
         <v>668</v>
       </c>
-      <c r="U22">
+      <c r="AQ22">
         <v>1263</v>
       </c>
-      <c r="V22">
+      <c r="AR22">
         <v>893</v>
       </c>
-      <c r="W22">
+      <c r="AS22">
         <v>661</v>
       </c>
-      <c r="X22">
+      <c r="AT22">
         <v>1743</v>
       </c>
-      <c r="Y22">
+      <c r="AU22">
         <v>1263</v>
       </c>
-      <c r="Z22">
+      <c r="AV22">
         <v>957</v>
       </c>
-      <c r="AA22">
+      <c r="AW22">
         <v>661</v>
       </c>
-      <c r="AB22">
+      <c r="AX22">
         <v>5.61</v>
       </c>
-      <c r="AC22">
+      <c r="AY22">
         <v>1.24</v>
       </c>
-      <c r="AD22">
+      <c r="AZ22">
         <v>3.68</v>
       </c>
-      <c r="AE22">
+      <c r="BA22">
         <v>52.569892469999999</v>
       </c>
-      <c r="AF22">
+      <c r="BB22">
         <v>48.649692780000002</v>
       </c>
-      <c r="AG22">
+      <c r="BC22">
         <v>41.21548387</v>
       </c>
-      <c r="AH22">
+      <c r="BD22">
         <v>33.72788018</v>
       </c>
-      <c r="AI22">
+      <c r="BE22">
         <v>65.648530469999997</v>
       </c>
-      <c r="AJ22">
+      <c r="BF22">
         <v>66.542434720000003</v>
       </c>
-      <c r="AK22">
+      <c r="BG22">
         <v>66.882142860000002</v>
       </c>
-      <c r="AL22">
+      <c r="BH22">
         <v>74.886666669999997</v>
       </c>
-      <c r="AM22">
+      <c r="BI22">
         <v>72.348387099999997</v>
       </c>
-      <c r="AN22">
+      <c r="BJ22">
         <v>871.35</v>
       </c>
-      <c r="AO22">
+      <c r="BK22">
         <v>44.2</v>
       </c>
-      <c r="AP22">
+      <c r="BL22">
         <v>13.8</v>
       </c>
-      <c r="AQ22">
+      <c r="BM22">
         <v>85.8</v>
       </c>
-      <c r="AR22">
+      <c r="BN22">
         <v>4.5</v>
       </c>
-      <c r="AS22">
+      <c r="BO22">
         <v>6</v>
       </c>
-      <c r="AU22">
+      <c r="BQ22">
         <v>58</v>
       </c>
-      <c r="AV22">
+      <c r="BR22">
         <v>143.80000000000001</v>
       </c>
-      <c r="AW22">
+      <c r="BS22">
         <v>148.30000000000001</v>
       </c>
-      <c r="AX22">
+      <c r="BT22">
         <v>154.30000000000001</v>
       </c>
-      <c r="AZ22">
+      <c r="BV22">
         <v>10.5</v>
       </c>
     </row>
@@ -7344,10 +7383,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A35" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
